--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_14_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_14_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>947279.1055388391</v>
+        <v>944607.0150253191</v>
       </c>
     </row>
     <row r="7">
@@ -667,10 +667,10 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>29.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488437</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -743,16 +743,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>36.39025468426208</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="H3" t="n">
         <v>41.31500304752735</v>
@@ -794,13 +794,13 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>36.39025468426209</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -822,19 +822,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="E4" t="n">
         <v>41.31500304752735</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>36.39025468426209</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>41.31500304752735</v>
       </c>
       <c r="Y4" t="n">
-        <v>36.39025468426208</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -904,7 +904,7 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>29.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
@@ -989,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="H6" t="n">
         <v>41.31500304752735</v>
@@ -1025,16 +1025,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>36.39025468426208</v>
+      </c>
+      <c r="V6" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>41.31500304752735</v>
-      </c>
-      <c r="V6" t="n">
-        <v>36.39025468426209</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1059,22 +1059,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>15.18661160258025</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>15.18661160258025</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,11 +1107,11 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1211,13 +1211,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>36.39025468426209</v>
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1265,13 +1265,13 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>36.39025468426209</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>15.18661160258025</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>41.31500304752735</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
     </row>
     <row r="11">
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>113.0212893835248</v>
+        <v>395.7253281238418</v>
       </c>
       <c r="H11" t="n">
         <v>269.2534844783823</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>45.02171802764671</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>89.96950367377555</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1530,16 +1530,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>163.1914050334985</v>
@@ -1581,16 +1581,16 @@
         <v>144.6838101511933</v>
       </c>
       <c r="T13" t="n">
-        <v>240.241925777892</v>
+        <v>93.05044271182828</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.608091256284</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>167.9721999968261</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>40.40108751467521</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>360.5704303363718</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>395.7253281238418</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>45.02171802764671</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.4973976610231</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>144.6838101511933</v>
+        <v>102.6347017625968</v>
       </c>
       <c r="T16" t="n">
         <v>240.241925777892</v>
       </c>
       <c r="U16" t="n">
-        <v>275.608091256284</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>121.2967660502745</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -1858,10 +1858,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>395.7253281238418</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>269.2534844783823</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>45.02171802764671</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>210.6063619346637</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>126.3228081920206</v>
+        <v>176.6827602664221</v>
       </c>
     </row>
     <row r="18">
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>189.9004325317973</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
@@ -2016,7 +2016,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.1914050334989</v>
+        <v>163.1914050334985</v>
       </c>
       <c r="H19" t="n">
         <v>131.8886968144235</v>
@@ -2083,22 +2083,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>395.7253281238418</v>
       </c>
       <c r="H20" t="n">
-        <v>35.50800037861919</v>
+        <v>269.2534844783823</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>45.02171802764671</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>199.45692132286</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2146,7 +2146,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -2295,7 +2295,7 @@
         <v>240.241925777892</v>
       </c>
       <c r="U22" t="n">
-        <v>275.608091256284</v>
+        <v>275.6080912562838</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2374,7 +2374,7 @@
         <v>210.6063619346637</v>
       </c>
       <c r="U23" t="n">
-        <v>256.4973976610231</v>
+        <v>256.4973976610244</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>345.0112528890198</v>
       </c>
       <c r="C26" t="n">
         <v>433.7610480884109</v>
@@ -2572,7 +2572,7 @@
         <v>395.7253281238418</v>
       </c>
       <c r="H26" t="n">
-        <v>147.2064445596983</v>
+        <v>269.2534844783823</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>45.02171802764671</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>210.6063619346637</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>45.02171802764671</v>
       </c>
       <c r="T29" t="n">
-        <v>133.5810400436256</v>
+        <v>210.6063619346637</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4973976610231</v>
+        <v>134.4503577423371</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
@@ -3082,7 +3082,7 @@
         <v>45.02171802764671</v>
       </c>
       <c r="T32" t="n">
-        <v>88.5593220159793</v>
+        <v>210.6063619346637</v>
       </c>
       <c r="U32" t="n">
         <v>256.4973976610231</v>
@@ -3094,7 +3094,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>292.9039988677964</v>
       </c>
       <c r="Y32" t="n">
         <v>404.2032624633431</v>
@@ -3265,19 +3265,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>34.949357712832</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
         <v>395.7253281238418</v>
@@ -3325,16 +3325,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>350.5545746427549</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3514,7 +3514,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>374.5064001023221</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>45.02171802764671</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>310.0991892431333</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3675,7 +3675,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.1914050334989</v>
+        <v>163.1914050334981</v>
       </c>
       <c r="H40" t="n">
         <v>131.8886968144235</v>
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
@@ -3751,13 +3751,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>337.0450283208785</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>269.2534844783823</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3799,16 +3799,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>101.2795524319757</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3903,19 +3903,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.1914050334985</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>131.8886968144235</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>144.6838101511933</v>
       </c>
       <c r="T43" t="n">
-        <v>191.5125437305188</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>275.608091256284</v>
@@ -3960,13 +3960,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>156.8584466176669</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>306.3040199431557</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -3988,10 +3988,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.7253281238418</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4033,16 +4033,16 @@
         <v>210.6063619346637</v>
       </c>
       <c r="U44" t="n">
-        <v>186.1371068908516</v>
+        <v>256.4973976610231</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4140,22 +4140,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.1914050334985</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>131.8886968144235</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>65.400528027585</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>144.6838101511933</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>240.241925777892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>226.8787092089112</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>167.9721999968259</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4315,7 +4315,7 @@
         <v>56.86656659549121</v>
       </c>
       <c r="E2" t="n">
-        <v>27.13222579419044</v>
+        <v>27.13222579419039</v>
       </c>
       <c r="F2" t="n">
         <v>3.305200243802188</v>
@@ -4330,28 +4330,28 @@
         <v>3.305200243802188</v>
       </c>
       <c r="J2" t="n">
-        <v>3.305200243802188</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="K2" t="n">
-        <v>3.305200243802188</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="L2" t="n">
-        <v>3.305200243802188</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="M2" t="n">
-        <v>3.305200243802188</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="N2" t="n">
-        <v>42.55445313895319</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="O2" t="n">
-        <v>83.45630615600527</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="P2" t="n">
         <v>124.3581591730573</v>
       </c>
       <c r="Q2" t="n">
-        <v>165.2600121901094</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="R2" t="n">
         <v>165.2600121901094</v>
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>45.03752655443588</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="C3" t="n">
-        <v>45.03752655443588</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="D3" t="n">
-        <v>45.03752655443588</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="E3" t="n">
-        <v>45.03752655443588</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="F3" t="n">
-        <v>45.03752655443588</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="G3" t="n">
         <v>45.03752655443588</v>
@@ -4406,31 +4406,31 @@
         <v>3.305200243802188</v>
       </c>
       <c r="I3" t="n">
-        <v>29.36887340425979</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="J3" t="n">
-        <v>70.27072642131186</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="K3" t="n">
-        <v>70.27072642131186</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="L3" t="n">
-        <v>70.27072642131186</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="M3" t="n">
-        <v>70.27072642131186</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="N3" t="n">
-        <v>70.27072642131186</v>
+        <v>126.0107592949584</v>
       </c>
       <c r="O3" t="n">
-        <v>70.27072642131186</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="P3" t="n">
-        <v>83.45630615600527</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="Q3" t="n">
-        <v>124.3581591730573</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="R3" t="n">
         <v>165.2600121901094</v>
@@ -4442,19 +4442,19 @@
         <v>165.2600121901094</v>
       </c>
       <c r="U3" t="n">
-        <v>123.5276858794757</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="V3" t="n">
-        <v>81.79535956884203</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="W3" t="n">
-        <v>45.03752655443588</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="X3" t="n">
-        <v>45.03752655443588</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="Y3" t="n">
-        <v>45.03752655443588</v>
+        <v>165.2600121901094</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>86.76985286506957</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="C4" t="n">
-        <v>86.76985286506957</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="D4" t="n">
-        <v>86.76985286506957</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="E4" t="n">
-        <v>45.03752655443588</v>
+        <v>40.06303325820834</v>
       </c>
       <c r="F4" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G4" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H4" t="n">
         <v>3.305200243802188</v>
@@ -4491,19 +4491,19 @@
         <v>44.20705326085427</v>
       </c>
       <c r="K4" t="n">
-        <v>44.20705326085427</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="L4" t="n">
-        <v>44.20705326085427</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="M4" t="n">
-        <v>44.20705326085427</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="N4" t="n">
-        <v>44.20705326085427</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="O4" t="n">
-        <v>83.45630615600527</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="P4" t="n">
         <v>124.3581591730573</v>
@@ -4533,7 +4533,7 @@
         <v>123.5276858794757</v>
       </c>
       <c r="Y4" t="n">
-        <v>86.76985286506957</v>
+        <v>123.5276858794757</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>122.8380161568152</v>
+        <v>122.8380161568153</v>
       </c>
       <c r="C5" t="n">
-        <v>88.7359473806426</v>
+        <v>88.73594738064263</v>
       </c>
       <c r="D5" t="n">
-        <v>56.86656659549116</v>
+        <v>56.86656659549121</v>
       </c>
       <c r="E5" t="n">
         <v>27.13222579419039</v>
@@ -4567,28 +4567,28 @@
         <v>3.305200243802188</v>
       </c>
       <c r="J5" t="n">
+        <v>3.305200243802188</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.305200243802188</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3.305200243802188</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3.305200243802188</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3.305200243802188</v>
+      </c>
+      <c r="O5" t="n">
         <v>44.20705326085427</v>
       </c>
-      <c r="K5" t="n">
+      <c r="P5" t="n">
         <v>85.10890627790634</v>
       </c>
-      <c r="L5" t="n">
-        <v>124.3581591730573</v>
-      </c>
-      <c r="M5" t="n">
-        <v>124.3581591730573</v>
-      </c>
-      <c r="N5" t="n">
-        <v>124.3581591730573</v>
-      </c>
-      <c r="O5" t="n">
-        <v>124.3581591730573</v>
-      </c>
-      <c r="P5" t="n">
-        <v>124.3581591730573</v>
-      </c>
       <c r="Q5" t="n">
-        <v>124.3581591730573</v>
+        <v>126.0107592949584</v>
       </c>
       <c r="R5" t="n">
         <v>165.2600121901094</v>
@@ -4606,7 +4606,7 @@
         <v>165.2600121901094</v>
       </c>
       <c r="W5" t="n">
-        <v>164.4449616415467</v>
+        <v>164.4449616415468</v>
       </c>
       <c r="X5" t="n">
         <v>149.3429022612615</v>
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>45.03752655443588</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="C6" t="n">
-        <v>45.03752655443588</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="D6" t="n">
-        <v>45.03752655443588</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="E6" t="n">
-        <v>45.03752655443588</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="F6" t="n">
-        <v>45.03752655443588</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="G6" t="n">
         <v>45.03752655443588</v>
@@ -4655,10 +4655,10 @@
         <v>29.36887340425979</v>
       </c>
       <c r="M6" t="n">
-        <v>29.36887340425979</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="N6" t="n">
-        <v>29.36887340425979</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="O6" t="n">
         <v>42.55445313895319</v>
@@ -4673,25 +4673,25 @@
         <v>165.2600121901094</v>
       </c>
       <c r="S6" t="n">
-        <v>123.5276858794757</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="T6" t="n">
-        <v>123.5276858794757</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="U6" t="n">
-        <v>81.79535956884203</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="V6" t="n">
-        <v>45.03752655443588</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="W6" t="n">
-        <v>45.03752655443588</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="X6" t="n">
-        <v>45.03752655443588</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="Y6" t="n">
-        <v>45.03752655443588</v>
+        <v>86.76985286506957</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>60.37753827421391</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="C7" t="n">
-        <v>60.37753827421391</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="D7" t="n">
         <v>60.37753827421391</v>
       </c>
       <c r="E7" t="n">
-        <v>60.37753827421391</v>
+        <v>18.64521196358022</v>
       </c>
       <c r="F7" t="n">
-        <v>60.37753827421391</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G7" t="n">
-        <v>60.37753827421391</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H7" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="I7" t="n">
         <v>3.305200243802188</v>
@@ -4728,19 +4728,19 @@
         <v>3.305200243802188</v>
       </c>
       <c r="K7" t="n">
-        <v>3.305200243802188</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="L7" t="n">
-        <v>3.305200243802188</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="M7" t="n">
-        <v>44.20705326085427</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="N7" t="n">
-        <v>85.10890627790634</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="O7" t="n">
-        <v>126.0107592949584</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="P7" t="n">
         <v>165.2600121901094</v>
@@ -4755,7 +4755,7 @@
         <v>143.8421908954813</v>
       </c>
       <c r="T7" t="n">
-        <v>102.1098645848476</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="U7" t="n">
         <v>102.1098645848476</v>
@@ -4767,10 +4767,10 @@
         <v>102.1098645848476</v>
       </c>
       <c r="X7" t="n">
-        <v>60.37753827421391</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="Y7" t="n">
-        <v>60.37753827421391</v>
+        <v>102.1098645848476</v>
       </c>
     </row>
     <row r="8">
@@ -4804,19 +4804,19 @@
         <v>3.305200243802188</v>
       </c>
       <c r="J8" t="n">
-        <v>3.305200243802188</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="K8" t="n">
-        <v>3.305200243802188</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="L8" t="n">
-        <v>3.305200243802188</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="M8" t="n">
-        <v>44.20705326085427</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="N8" t="n">
-        <v>85.10890627790634</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="O8" t="n">
         <v>124.3581591730573</v>
@@ -4865,16 +4865,16 @@
         <v>81.79535956884203</v>
       </c>
       <c r="D9" t="n">
-        <v>40.06303325820834</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="E9" t="n">
-        <v>3.305200243802188</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="F9" t="n">
-        <v>3.305200243802188</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="G9" t="n">
-        <v>3.305200243802188</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="H9" t="n">
         <v>3.305200243802188</v>
@@ -4883,28 +4883,28 @@
         <v>29.36887340425979</v>
       </c>
       <c r="J9" t="n">
-        <v>29.36887340425979</v>
+        <v>70.27072642131186</v>
       </c>
       <c r="K9" t="n">
-        <v>29.36887340425979</v>
+        <v>70.27072642131186</v>
       </c>
       <c r="L9" t="n">
-        <v>29.36887340425979</v>
+        <v>70.27072642131186</v>
       </c>
       <c r="M9" t="n">
-        <v>29.36887340425979</v>
+        <v>111.1725794383639</v>
       </c>
       <c r="N9" t="n">
-        <v>70.27072642131186</v>
+        <v>152.074432455416</v>
       </c>
       <c r="O9" t="n">
-        <v>70.27072642131186</v>
+        <v>152.074432455416</v>
       </c>
       <c r="P9" t="n">
-        <v>83.45630615600527</v>
+        <v>152.074432455416</v>
       </c>
       <c r="Q9" t="n">
-        <v>124.3581591730573</v>
+        <v>152.074432455416</v>
       </c>
       <c r="R9" t="n">
         <v>165.2600121901094</v>
@@ -4913,22 +4913,22 @@
         <v>165.2600121901094</v>
       </c>
       <c r="T9" t="n">
-        <v>123.5276858794757</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="U9" t="n">
         <v>123.5276858794757</v>
       </c>
       <c r="V9" t="n">
-        <v>123.5276858794757</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="W9" t="n">
-        <v>123.5276858794757</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="X9" t="n">
-        <v>123.5276858794757</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="Y9" t="n">
-        <v>123.5276858794757</v>
+        <v>81.79535956884203</v>
       </c>
     </row>
     <row r="10">
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>81.79535956884203</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="C10" t="n">
-        <v>81.79535956884203</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="D10" t="n">
-        <v>40.06303325820834</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="E10" t="n">
-        <v>40.06303325820834</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="F10" t="n">
-        <v>40.06303325820834</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G10" t="n">
         <v>3.305200243802188</v>
@@ -4962,10 +4962,10 @@
         <v>3.305200243802188</v>
       </c>
       <c r="J10" t="n">
-        <v>3.305200243802188</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="K10" t="n">
-        <v>3.305200243802188</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="L10" t="n">
         <v>44.20705326085427</v>
@@ -4974,40 +4974,40 @@
         <v>44.20705326085427</v>
       </c>
       <c r="N10" t="n">
-        <v>83.45630615600527</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="O10" t="n">
-        <v>83.45630615600527</v>
+        <v>126.0107592949584</v>
       </c>
       <c r="P10" t="n">
-        <v>124.3581591730573</v>
+        <v>126.0107592949584</v>
       </c>
       <c r="Q10" t="n">
         <v>165.2600121901094</v>
       </c>
       <c r="R10" t="n">
-        <v>165.2600121901094</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="S10" t="n">
-        <v>165.2600121901094</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="T10" t="n">
-        <v>165.2600121901094</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="U10" t="n">
-        <v>165.2600121901094</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="V10" t="n">
-        <v>165.2600121901094</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="W10" t="n">
-        <v>123.5276858794757</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="X10" t="n">
-        <v>81.79535956884203</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="Y10" t="n">
-        <v>81.79535956884203</v>
+        <v>3.305200243802188</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>427.8651096509652</v>
+        <v>1587.477002384327</v>
       </c>
       <c r="C11" t="n">
-        <v>427.8651096509652</v>
+        <v>1149.33452956775</v>
       </c>
       <c r="D11" t="n">
-        <v>427.8651096509652</v>
+        <v>713.4247447421945</v>
       </c>
       <c r="E11" t="n">
-        <v>427.8651096509652</v>
+        <v>713.4247447421945</v>
       </c>
       <c r="F11" t="n">
-        <v>427.8651096509652</v>
+        <v>713.4247447421945</v>
       </c>
       <c r="G11" t="n">
         <v>313.7021910817482</v>
       </c>
       <c r="H11" t="n">
-        <v>41.72897443691752</v>
+        <v>41.72897443691753</v>
       </c>
       <c r="I11" t="n">
-        <v>104.6213590611113</v>
+        <v>104.6213590611116</v>
       </c>
       <c r="J11" t="n">
-        <v>243.9789378028124</v>
+        <v>243.9789378028126</v>
       </c>
       <c r="K11" t="n">
-        <v>452.8398236110234</v>
+        <v>452.8398236110237</v>
       </c>
       <c r="L11" t="n">
-        <v>711.9502211989818</v>
+        <v>711.950221198982</v>
       </c>
       <c r="M11" t="n">
         <v>1000.260463744277</v>
@@ -5059,7 +5059,7 @@
         <v>1569.88423333198</v>
       </c>
       <c r="P11" t="n">
-        <v>1805.997213140578</v>
+        <v>1805.997213140579</v>
       </c>
       <c r="Q11" t="n">
         <v>1983.308227810519</v>
@@ -5068,25 +5068,25 @@
         <v>2086.448721845876</v>
       </c>
       <c r="S11" t="n">
-        <v>2086.448721845876</v>
+        <v>2040.972238989667</v>
       </c>
       <c r="T11" t="n">
-        <v>2086.448721845876</v>
+        <v>1950.0939524505</v>
       </c>
       <c r="U11" t="n">
-        <v>2086.448721845876</v>
+        <v>1950.0939524505</v>
       </c>
       <c r="V11" t="n">
-        <v>2086.448721845876</v>
+        <v>1587.477002384327</v>
       </c>
       <c r="W11" t="n">
-        <v>1681.593267256909</v>
+        <v>1587.477002384327</v>
       </c>
       <c r="X11" t="n">
-        <v>1262.45080383622</v>
+        <v>1587.477002384327</v>
       </c>
       <c r="Y11" t="n">
-        <v>854.164680135873</v>
+        <v>1587.477002384327</v>
       </c>
     </row>
     <row r="12">
@@ -5096,10 +5096,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>538.3474877623345</v>
+        <v>538.3474877623346</v>
       </c>
       <c r="C12" t="n">
-        <v>431.8910265989768</v>
+        <v>431.8910265989769</v>
       </c>
       <c r="D12" t="n">
         <v>336.8007377455301</v>
@@ -5111,31 +5111,31 @@
         <v>159.2964846886454</v>
       </c>
       <c r="G12" t="n">
-        <v>74.8077475555781</v>
+        <v>74.80774755557812</v>
       </c>
       <c r="H12" t="n">
-        <v>41.72897443691752</v>
+        <v>41.72897443691753</v>
       </c>
       <c r="I12" t="n">
-        <v>71.97609809635789</v>
+        <v>98.03977125681551</v>
       </c>
       <c r="J12" t="n">
-        <v>154.9765172999254</v>
+        <v>230.7624520002195</v>
       </c>
       <c r="K12" t="n">
-        <v>296.8374538310867</v>
+        <v>372.6233885313808</v>
       </c>
       <c r="L12" t="n">
-        <v>487.5869897241562</v>
+        <v>563.3729244244504</v>
       </c>
       <c r="M12" t="n">
-        <v>710.1827010370058</v>
+        <v>785.9686357373001</v>
       </c>
       <c r="N12" t="n">
-        <v>938.6698584740956</v>
+        <v>1014.45579317439</v>
       </c>
       <c r="O12" t="n">
-        <v>1223.476903639824</v>
+        <v>1223.476903639825</v>
       </c>
       <c r="P12" t="n">
         <v>1391.234772414947</v>
@@ -5150,22 +5150,22 @@
         <v>1628.288166132008</v>
       </c>
       <c r="T12" t="n">
-        <v>1501.722452462996</v>
+        <v>1501.722452462997</v>
       </c>
       <c r="U12" t="n">
-        <v>1325.444876028803</v>
+        <v>1325.444876028804</v>
       </c>
       <c r="V12" t="n">
         <v>1126.327358090803</v>
       </c>
       <c r="W12" t="n">
-        <v>941.0046038239968</v>
+        <v>941.0046038239971</v>
       </c>
       <c r="X12" t="n">
-        <v>786.1371680628769</v>
+        <v>786.137168062877</v>
       </c>
       <c r="Y12" t="n">
-        <v>659.6513888420976</v>
+        <v>659.6513888420977</v>
       </c>
     </row>
     <row r="13">
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1090.755584898774</v>
+        <v>571.7288155944929</v>
       </c>
       <c r="C13" t="n">
-        <v>918.1938733819994</v>
+        <v>571.7288155944929</v>
       </c>
       <c r="D13" t="n">
-        <v>752.3158805835221</v>
+        <v>405.8508227960155</v>
       </c>
       <c r="E13" t="n">
-        <v>582.5578768342593</v>
+        <v>405.8508227960155</v>
       </c>
       <c r="F13" t="n">
         <v>405.8508227960155</v>
@@ -5196,28 +5196,28 @@
         <v>107.7901138587206</v>
       </c>
       <c r="I13" t="n">
-        <v>41.72897443691752</v>
+        <v>41.72897443691753</v>
       </c>
       <c r="J13" t="n">
-        <v>93.80077010183048</v>
+        <v>93.80077010183051</v>
       </c>
       <c r="K13" t="n">
-        <v>454.1291807739802</v>
+        <v>179.3707262028447</v>
       </c>
       <c r="L13" t="n">
-        <v>663.3165580796949</v>
+        <v>695.7667848596991</v>
       </c>
       <c r="M13" t="n">
-        <v>778.7690426688803</v>
+        <v>1212.162843516553</v>
       </c>
       <c r="N13" t="n">
-        <v>891.476325223526</v>
+        <v>1728.558902173408</v>
       </c>
       <c r="O13" t="n">
-        <v>1407.87238388038</v>
+        <v>1923.572052715055</v>
       </c>
       <c r="P13" t="n">
-        <v>1844.457736064172</v>
+        <v>2012.650510928505</v>
       </c>
       <c r="Q13" t="n">
         <v>2074.323818099588</v>
@@ -5229,22 +5229,22 @@
         <v>1940.303459066893</v>
       </c>
       <c r="T13" t="n">
-        <v>1697.634847170032</v>
+        <v>1846.313112893329</v>
       </c>
       <c r="U13" t="n">
-        <v>1697.634847170032</v>
+        <v>1567.921101523345</v>
       </c>
       <c r="V13" t="n">
-        <v>1697.634847170032</v>
+        <v>1280.965593393776</v>
       </c>
       <c r="W13" t="n">
-        <v>1527.965958284349</v>
+        <v>1008.939188980067</v>
       </c>
       <c r="X13" t="n">
-        <v>1282.574203617762</v>
+        <v>763.5474343134799</v>
       </c>
       <c r="Y13" t="n">
-        <v>1282.574203617762</v>
+        <v>763.5474343134799</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1667.306258425186</v>
+        <v>913.646192095199</v>
       </c>
       <c r="C14" t="n">
-        <v>1667.306258425186</v>
+        <v>475.5037192786224</v>
       </c>
       <c r="D14" t="n">
-        <v>1303.093702529861</v>
+        <v>475.5037192786224</v>
       </c>
       <c r="E14" t="n">
-        <v>869.3189576881562</v>
+        <v>41.72897443691753</v>
       </c>
       <c r="F14" t="n">
-        <v>441.4515280973638</v>
+        <v>41.72897443691753</v>
       </c>
       <c r="G14" t="n">
-        <v>41.7289744369175</v>
+        <v>41.72897443691753</v>
       </c>
       <c r="H14" t="n">
-        <v>41.7289744369175</v>
+        <v>41.72897443691753</v>
       </c>
       <c r="I14" t="n">
-        <v>104.6213590611109</v>
+        <v>104.6213590611111</v>
       </c>
       <c r="J14" t="n">
-        <v>243.9789378028119</v>
+        <v>243.9789378028121</v>
       </c>
       <c r="K14" t="n">
-        <v>452.839823611023</v>
+        <v>452.8398236110231</v>
       </c>
       <c r="L14" t="n">
-        <v>711.9502211989815</v>
+        <v>711.9502211989816</v>
       </c>
       <c r="M14" t="n">
-        <v>1000.260463744276</v>
+        <v>1000.260463744277</v>
       </c>
       <c r="N14" t="n">
-        <v>1293.235867433032</v>
+        <v>1293.235867433033</v>
       </c>
       <c r="O14" t="n">
-        <v>1569.884233331979</v>
+        <v>1569.88423333198</v>
       </c>
       <c r="P14" t="n">
-        <v>1805.997213140578</v>
+        <v>1805.997213140579</v>
       </c>
       <c r="Q14" t="n">
-        <v>1983.308227810518</v>
+        <v>1983.308227810519</v>
       </c>
       <c r="R14" t="n">
-        <v>2086.448721845875</v>
+        <v>2086.448721845876</v>
       </c>
       <c r="S14" t="n">
-        <v>2086.448721845875</v>
+        <v>2040.972238989667</v>
       </c>
       <c r="T14" t="n">
-        <v>2086.448721845875</v>
+        <v>2040.972238989667</v>
       </c>
       <c r="U14" t="n">
-        <v>2086.448721845875</v>
+        <v>1781.883958523988</v>
       </c>
       <c r="V14" t="n">
-        <v>2086.448721845875</v>
+        <v>1781.883958523988</v>
       </c>
       <c r="W14" t="n">
-        <v>2086.448721845875</v>
+        <v>1781.883958523988</v>
       </c>
       <c r="X14" t="n">
-        <v>1667.306258425186</v>
+        <v>1362.741495103298</v>
       </c>
       <c r="Y14" t="n">
-        <v>1667.306258425186</v>
+        <v>954.4553714029518</v>
       </c>
     </row>
     <row r="15">
@@ -5333,10 +5333,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>538.3474877623345</v>
+        <v>538.3474877623346</v>
       </c>
       <c r="C15" t="n">
-        <v>431.8910265989768</v>
+        <v>431.8910265989769</v>
       </c>
       <c r="D15" t="n">
         <v>336.8007377455301</v>
@@ -5348,37 +5348,37 @@
         <v>159.2964846886454</v>
       </c>
       <c r="G15" t="n">
-        <v>74.80774755557809</v>
+        <v>74.80774755557812</v>
       </c>
       <c r="H15" t="n">
-        <v>41.7289744369175</v>
+        <v>41.72897443691753</v>
       </c>
       <c r="I15" t="n">
-        <v>71.97609809635787</v>
+        <v>98.03977125681551</v>
       </c>
       <c r="J15" t="n">
-        <v>347.935230094559</v>
+        <v>181.040190460383</v>
       </c>
       <c r="K15" t="n">
-        <v>489.7961666257203</v>
+        <v>322.9011269915443</v>
       </c>
       <c r="L15" t="n">
-        <v>680.5457025187899</v>
+        <v>513.6506628846138</v>
       </c>
       <c r="M15" t="n">
-        <v>903.1414138316396</v>
+        <v>736.2463741974635</v>
       </c>
       <c r="N15" t="n">
-        <v>1131.62857126873</v>
+        <v>964.7335316345534</v>
       </c>
       <c r="O15" t="n">
-        <v>1340.649681734164</v>
+        <v>1173.754642099988</v>
       </c>
       <c r="P15" t="n">
-        <v>1508.407550509287</v>
+        <v>1341.512510875111</v>
       </c>
       <c r="Q15" t="n">
-        <v>1620.549243118759</v>
+        <v>1503.376465024419</v>
       </c>
       <c r="R15" t="n">
         <v>1675.094247261821</v>
@@ -5387,22 +5387,22 @@
         <v>1628.288166132008</v>
       </c>
       <c r="T15" t="n">
-        <v>1501.722452462996</v>
+        <v>1501.722452462997</v>
       </c>
       <c r="U15" t="n">
-        <v>1325.444876028803</v>
+        <v>1325.444876028804</v>
       </c>
       <c r="V15" t="n">
         <v>1126.327358090803</v>
       </c>
       <c r="W15" t="n">
-        <v>941.0046038239968</v>
+        <v>941.0046038239971</v>
       </c>
       <c r="X15" t="n">
-        <v>786.1371680628769</v>
+        <v>786.137168062877</v>
       </c>
       <c r="Y15" t="n">
-        <v>659.6513888420976</v>
+        <v>659.6513888420977</v>
       </c>
     </row>
     <row r="16">
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1024.694445476971</v>
+        <v>516.4967374124562</v>
       </c>
       <c r="C16" t="n">
-        <v>852.1327339601963</v>
+        <v>516.4967374124562</v>
       </c>
       <c r="D16" t="n">
-        <v>686.254741161719</v>
+        <v>516.4967374124562</v>
       </c>
       <c r="E16" t="n">
         <v>516.4967374124562</v>
@@ -5430,58 +5430,58 @@
         <v>174.9498803100726</v>
       </c>
       <c r="H16" t="n">
-        <v>41.7289744369175</v>
+        <v>41.72897443691753</v>
       </c>
       <c r="I16" t="n">
-        <v>41.7289744369175</v>
+        <v>41.72897443691753</v>
       </c>
       <c r="J16" t="n">
         <v>180.3804552665204</v>
       </c>
       <c r="K16" t="n">
-        <v>270.280459102976</v>
+        <v>540.7088659386701</v>
       </c>
       <c r="L16" t="n">
-        <v>786.6765177598302</v>
+        <v>650.2089490432074</v>
       </c>
       <c r="M16" t="n">
-        <v>1303.072576416684</v>
+        <v>1166.605007700062</v>
       </c>
       <c r="N16" t="n">
-        <v>1819.468635073538</v>
+        <v>1651.275860209207</v>
       </c>
       <c r="O16" t="n">
-        <v>1923.572052715054</v>
+        <v>1755.379277850723</v>
       </c>
       <c r="P16" t="n">
-        <v>2012.650510928504</v>
+        <v>1844.457736064173</v>
       </c>
       <c r="Q16" t="n">
-        <v>2074.323818099587</v>
+        <v>2074.323818099588</v>
       </c>
       <c r="R16" t="n">
-        <v>2086.448721845875</v>
+        <v>2086.448721845876</v>
       </c>
       <c r="S16" t="n">
-        <v>1940.303459066892</v>
+        <v>1982.777305924061</v>
       </c>
       <c r="T16" t="n">
-        <v>1697.634847170032</v>
+        <v>1740.108694027201</v>
       </c>
       <c r="U16" t="n">
-        <v>1419.242835800048</v>
+        <v>1740.108694027201</v>
       </c>
       <c r="V16" t="n">
-        <v>1296.72084989068</v>
+        <v>1453.153185897631</v>
       </c>
       <c r="W16" t="n">
-        <v>1024.694445476971</v>
+        <v>1181.126781483923</v>
       </c>
       <c r="X16" t="n">
-        <v>1024.694445476971</v>
+        <v>935.7350268173352</v>
       </c>
       <c r="Y16" t="n">
-        <v>1024.694445476971</v>
+        <v>708.3153561314434</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2467.387027953834</v>
+        <v>1795.691257648556</v>
       </c>
       <c r="C17" t="n">
-        <v>2029.244555137257</v>
+        <v>1357.54878483198</v>
       </c>
       <c r="D17" t="n">
-        <v>1593.334770311701</v>
+        <v>921.6390000064242</v>
       </c>
       <c r="E17" t="n">
-        <v>1159.560025469996</v>
+        <v>487.8642551647194</v>
       </c>
       <c r="F17" t="n">
-        <v>731.6925958792042</v>
+        <v>59.99682557392712</v>
       </c>
       <c r="G17" t="n">
-        <v>331.9700422187578</v>
+        <v>59.99682557392712</v>
       </c>
       <c r="H17" t="n">
-        <v>59.99682557392713</v>
+        <v>59.99682557392712</v>
       </c>
       <c r="I17" t="n">
         <v>122.8892101981207</v>
@@ -5542,25 +5542,25 @@
         <v>2999.841278696356</v>
       </c>
       <c r="S17" t="n">
-        <v>2999.841278696356</v>
+        <v>2954.364795840147</v>
       </c>
       <c r="T17" t="n">
-        <v>2999.841278696356</v>
+        <v>2741.631096916244</v>
       </c>
       <c r="U17" t="n">
-        <v>2999.841278696356</v>
+        <v>2741.631096916244</v>
       </c>
       <c r="V17" t="n">
-        <v>2999.841278696356</v>
+        <v>2379.014146850071</v>
       </c>
       <c r="W17" t="n">
-        <v>2594.98582410739</v>
+        <v>1974.158692261104</v>
       </c>
       <c r="X17" t="n">
-        <v>2594.98582410739</v>
+        <v>1974.158692261104</v>
       </c>
       <c r="Y17" t="n">
-        <v>2467.387027953834</v>
+        <v>1795.691257648556</v>
       </c>
     </row>
     <row r="18">
@@ -5588,28 +5588,28 @@
         <v>93.0755986925877</v>
       </c>
       <c r="H18" t="n">
-        <v>59.99682557392713</v>
+        <v>59.99682557392712</v>
       </c>
       <c r="I18" t="n">
-        <v>90.2439492333675</v>
+        <v>116.3076223938251</v>
       </c>
       <c r="J18" t="n">
-        <v>366.2030812315686</v>
+        <v>199.3080415973926</v>
       </c>
       <c r="K18" t="n">
-        <v>508.0640177627299</v>
+        <v>341.1689781285539</v>
       </c>
       <c r="L18" t="n">
-        <v>698.8135536557994</v>
+        <v>531.9185140216234</v>
       </c>
       <c r="M18" t="n">
-        <v>921.4092649686492</v>
+        <v>754.5142253344732</v>
       </c>
       <c r="N18" t="n">
-        <v>1149.896422405739</v>
+        <v>983.0013827715629</v>
       </c>
       <c r="O18" t="n">
-        <v>1358.917532871174</v>
+        <v>1192.022493236997</v>
       </c>
       <c r="P18" t="n">
         <v>1526.675401646297</v>
@@ -5652,46 +5652,46 @@
         <v>1109.023436035784</v>
       </c>
       <c r="C19" t="n">
-        <v>936.4617245190094</v>
+        <v>936.461724519009</v>
       </c>
       <c r="D19" t="n">
-        <v>770.5837317205321</v>
+        <v>770.5837317205317</v>
       </c>
       <c r="E19" t="n">
-        <v>600.8257279712693</v>
+        <v>600.8257279712689</v>
       </c>
       <c r="F19" t="n">
-        <v>424.1186739330255</v>
+        <v>424.1186739330251</v>
       </c>
       <c r="G19" t="n">
         <v>259.2788708688852</v>
       </c>
       <c r="H19" t="n">
-        <v>126.0579649957302</v>
+        <v>126.0579649957301</v>
       </c>
       <c r="I19" t="n">
-        <v>59.99682557392713</v>
+        <v>59.99682557392712</v>
       </c>
       <c r="J19" t="n">
         <v>198.64830640353</v>
       </c>
       <c r="K19" t="n">
-        <v>308.0726463730088</v>
+        <v>558.9767170756797</v>
       </c>
       <c r="L19" t="n">
-        <v>835.7826112455072</v>
+        <v>668.476800180217</v>
       </c>
       <c r="M19" t="n">
-        <v>1410.718963015606</v>
+        <v>1243.413151950316</v>
       </c>
       <c r="N19" t="n">
-        <v>1965.685048727896</v>
+        <v>1798.379237662606</v>
       </c>
       <c r="O19" t="n">
-        <v>2489.457715595193</v>
+        <v>2322.151904529903</v>
       </c>
       <c r="P19" t="n">
-        <v>2926.043067778985</v>
+        <v>2757.850292914653</v>
       </c>
       <c r="Q19" t="n">
         <v>2987.716374950068</v>
@@ -5703,7 +5703,7 @@
         <v>2853.696015917373</v>
       </c>
       <c r="T19" t="n">
-        <v>2611.027404020513</v>
+        <v>2611.027404020512</v>
       </c>
       <c r="U19" t="n">
         <v>2332.635392650529</v>
@@ -5718,7 +5718,7 @@
         <v>1528.261725440663</v>
       </c>
       <c r="Y19" t="n">
-        <v>1300.842054754772</v>
+        <v>1300.842054754771</v>
       </c>
     </row>
     <row r="20">
@@ -5728,49 +5728,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1397.783179855962</v>
+        <v>731.6925958792042</v>
       </c>
       <c r="C20" t="n">
-        <v>959.6407070393852</v>
+        <v>731.6925958792042</v>
       </c>
       <c r="D20" t="n">
-        <v>523.7309222138297</v>
+        <v>731.6925958792042</v>
       </c>
       <c r="E20" t="n">
-        <v>523.7309222138297</v>
+        <v>731.6925958792042</v>
       </c>
       <c r="F20" t="n">
-        <v>95.86349262303742</v>
+        <v>731.6925958792042</v>
       </c>
       <c r="G20" t="n">
-        <v>95.86349262303742</v>
+        <v>331.9700422187578</v>
       </c>
       <c r="H20" t="n">
-        <v>59.99682557392713</v>
+        <v>59.99682557392712</v>
       </c>
       <c r="I20" t="n">
         <v>122.8892101981207</v>
       </c>
       <c r="J20" t="n">
-        <v>262.2467889398217</v>
+        <v>697.5014763927395</v>
       </c>
       <c r="K20" t="n">
-        <v>471.1076747480327</v>
+        <v>906.3623622009505</v>
       </c>
       <c r="L20" t="n">
-        <v>730.2180723359911</v>
+        <v>1165.472759788909</v>
       </c>
       <c r="M20" t="n">
-        <v>1018.528314881286</v>
+        <v>1453.783002334204</v>
       </c>
       <c r="N20" t="n">
-        <v>1311.503718570042</v>
+        <v>1746.75840602296</v>
       </c>
       <c r="O20" t="n">
-        <v>1588.152084468989</v>
+        <v>2023.406771921907</v>
       </c>
       <c r="P20" t="n">
-        <v>2003.736919279407</v>
+        <v>2259.519751730506</v>
       </c>
       <c r="Q20" t="n">
         <v>2727.546719907942</v>
@@ -5779,25 +5779,25 @@
         <v>2999.841278696356</v>
       </c>
       <c r="S20" t="n">
-        <v>2999.841278696356</v>
+        <v>2954.364795840147</v>
       </c>
       <c r="T20" t="n">
-        <v>2999.841278696356</v>
+        <v>2954.364795840147</v>
       </c>
       <c r="U20" t="n">
-        <v>2999.841278696356</v>
+        <v>2752.893158140289</v>
       </c>
       <c r="V20" t="n">
-        <v>2637.224328630183</v>
+        <v>2390.276208074115</v>
       </c>
       <c r="W20" t="n">
-        <v>2232.368874041216</v>
+        <v>1985.420753485148</v>
       </c>
       <c r="X20" t="n">
-        <v>2232.368874041216</v>
+        <v>1566.278290064459</v>
       </c>
       <c r="Y20" t="n">
-        <v>1824.08275034087</v>
+        <v>1157.992166364112</v>
       </c>
     </row>
     <row r="21">
@@ -5825,34 +5825,34 @@
         <v>93.0755986925877</v>
       </c>
       <c r="H21" t="n">
-        <v>59.99682557392713</v>
+        <v>59.99682557392712</v>
       </c>
       <c r="I21" t="n">
-        <v>90.2439492333675</v>
+        <v>116.3076223938251</v>
       </c>
       <c r="J21" t="n">
-        <v>173.244368436935</v>
+        <v>249.0303031372289</v>
       </c>
       <c r="K21" t="n">
-        <v>315.1053049680963</v>
+        <v>390.8912396683902</v>
       </c>
       <c r="L21" t="n">
-        <v>505.8548408611658</v>
+        <v>581.6407755614597</v>
       </c>
       <c r="M21" t="n">
-        <v>728.4505521740156</v>
+        <v>804.2364868743094</v>
       </c>
       <c r="N21" t="n">
-        <v>956.9377096111053</v>
+        <v>1032.723644311399</v>
       </c>
       <c r="O21" t="n">
-        <v>1165.95882007654</v>
+        <v>1241.744754776834</v>
       </c>
       <c r="P21" t="n">
-        <v>1333.716688851663</v>
+        <v>1409.502623551957</v>
       </c>
       <c r="Q21" t="n">
-        <v>1638.817094255768</v>
+        <v>1521.644316161428</v>
       </c>
       <c r="R21" t="n">
         <v>1693.362098398831</v>
@@ -5904,31 +5904,31 @@
         <v>259.2788708688852</v>
       </c>
       <c r="H22" t="n">
-        <v>126.0579649957302</v>
+        <v>126.0579649957301</v>
       </c>
       <c r="I22" t="n">
-        <v>59.99682557392713</v>
+        <v>59.99682557392712</v>
       </c>
       <c r="J22" t="n">
-        <v>112.0686212388401</v>
+        <v>198.64830640353</v>
       </c>
       <c r="K22" t="n">
-        <v>472.3970319109899</v>
+        <v>558.9767170756797</v>
       </c>
       <c r="L22" t="n">
-        <v>1000.106996783488</v>
+        <v>1086.686681948178</v>
       </c>
       <c r="M22" t="n">
-        <v>1575.043348553587</v>
+        <v>1242.526188151273</v>
       </c>
       <c r="N22" t="n">
-        <v>2130.009434265877</v>
+        <v>1797.492273863564</v>
       </c>
       <c r="O22" t="n">
-        <v>2653.782101133174</v>
+        <v>2321.264940730861</v>
       </c>
       <c r="P22" t="n">
-        <v>2926.043067778985</v>
+        <v>2757.850292914653</v>
       </c>
       <c r="Q22" t="n">
         <v>2987.716374950068</v>
@@ -5940,7 +5940,7 @@
         <v>2853.696015917373</v>
       </c>
       <c r="T22" t="n">
-        <v>2611.027404020513</v>
+        <v>2611.027404020512</v>
       </c>
       <c r="U22" t="n">
         <v>2332.635392650529</v>
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2508.326717214331</v>
+        <v>2508.32671721433</v>
       </c>
       <c r="C23" t="n">
-        <v>2070.184244397754</v>
+        <v>2070.184244397753</v>
       </c>
       <c r="D23" t="n">
-        <v>1634.274459572199</v>
+        <v>1634.274459572198</v>
       </c>
       <c r="E23" t="n">
-        <v>1200.499714730494</v>
+        <v>1200.499714730493</v>
       </c>
       <c r="F23" t="n">
-        <v>772.6322851397017</v>
+        <v>772.632285139701</v>
       </c>
       <c r="G23" t="n">
-        <v>372.9097314792552</v>
+        <v>372.9097314792548</v>
       </c>
       <c r="H23" t="n">
         <v>100.9365148344241</v>
@@ -6022,19 +6022,19 @@
         <v>4788.615559941095</v>
       </c>
       <c r="U23" t="n">
-        <v>4529.527279475415</v>
+        <v>4529.527279475414</v>
       </c>
       <c r="V23" t="n">
-        <v>4166.910329409241</v>
+        <v>4166.91032940924</v>
       </c>
       <c r="W23" t="n">
-        <v>3762.054874820275</v>
+        <v>3762.054874820274</v>
       </c>
       <c r="X23" t="n">
-        <v>3342.912411399585</v>
+        <v>3342.912411399584</v>
       </c>
       <c r="Y23" t="n">
-        <v>2934.626287699239</v>
+        <v>2934.626287699238</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>100.9365148344241</v>
       </c>
       <c r="I24" t="n">
-        <v>131.1836384938645</v>
+        <v>157.2473116543221</v>
       </c>
       <c r="J24" t="n">
-        <v>214.1840576974321</v>
+        <v>240.2477308578896</v>
       </c>
       <c r="K24" t="n">
-        <v>356.0449942285934</v>
+        <v>382.108667389051</v>
       </c>
       <c r="L24" t="n">
-        <v>546.7945301216629</v>
+        <v>572.8582032821205</v>
       </c>
       <c r="M24" t="n">
-        <v>769.3902414345126</v>
+        <v>795.4539145949702</v>
       </c>
       <c r="N24" t="n">
-        <v>997.8773988716025</v>
+        <v>1023.94107203206</v>
       </c>
       <c r="O24" t="n">
-        <v>1206.898509337037</v>
+        <v>1232.962182497495</v>
       </c>
       <c r="P24" t="n">
-        <v>1374.65637811216</v>
+        <v>1400.720051272618</v>
       </c>
       <c r="Q24" t="n">
-        <v>1679.756783516265</v>
+        <v>1562.584005421926</v>
       </c>
       <c r="R24" t="n">
         <v>1734.301787659328</v>
@@ -6150,22 +6150,22 @@
         <v>153.0083104993371</v>
       </c>
       <c r="K25" t="n">
-        <v>349.0123356335053</v>
+        <v>513.3367211714869</v>
       </c>
       <c r="L25" t="n">
-        <v>876.7223005060036</v>
+        <v>1041.046686043985</v>
       </c>
       <c r="M25" t="n">
-        <v>1451.658652276102</v>
+        <v>1615.983037814084</v>
       </c>
       <c r="N25" t="n">
-        <v>2006.624737988393</v>
+        <v>2170.949123526374</v>
       </c>
       <c r="O25" t="n">
-        <v>2530.39740485569</v>
+        <v>2362.204629991358</v>
       </c>
       <c r="P25" t="n">
-        <v>2966.982757039481</v>
+        <v>2798.789982175149</v>
       </c>
       <c r="Q25" t="n">
         <v>3028.656064210565</v>
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2382.530963845248</v>
+        <v>2505.810802146949</v>
       </c>
       <c r="C26" t="n">
-        <v>1944.388491028671</v>
+        <v>2067.668329330372</v>
       </c>
       <c r="D26" t="n">
-        <v>1508.478706203116</v>
+        <v>1631.758544504817</v>
       </c>
       <c r="E26" t="n">
-        <v>1074.703961361411</v>
+        <v>1197.983799663112</v>
       </c>
       <c r="F26" t="n">
-        <v>646.8365317706184</v>
+        <v>770.1163700723196</v>
       </c>
       <c r="G26" t="n">
-        <v>247.1139781101721</v>
+        <v>370.3938164118732</v>
       </c>
       <c r="H26" t="n">
-        <v>98.42059976704246</v>
+        <v>98.42059976704245</v>
       </c>
       <c r="I26" t="n">
         <v>161.312984391236</v>
       </c>
       <c r="J26" t="n">
-        <v>735.9252505858549</v>
+        <v>735.9252505858548</v>
       </c>
       <c r="K26" t="n">
-        <v>1743.458364572224</v>
+        <v>1743.458364572223</v>
       </c>
       <c r="L26" t="n">
-        <v>2002.568762160182</v>
+        <v>2002.568762160181</v>
       </c>
       <c r="M26" t="n">
-        <v>2290.879004705477</v>
+        <v>2290.879004705476</v>
       </c>
       <c r="N26" t="n">
-        <v>2583.854408394233</v>
+        <v>2583.854408394232</v>
       </c>
       <c r="O26" t="n">
-        <v>2860.502774293181</v>
+        <v>2860.50277429318</v>
       </c>
       <c r="P26" t="n">
-        <v>3924.925628935175</v>
+        <v>3924.925628935174</v>
       </c>
       <c r="Q26" t="n">
-        <v>4648.73542956371</v>
+        <v>4648.735429563709</v>
       </c>
       <c r="R26" t="n">
-        <v>4921.029988352123</v>
+        <v>4921.029988352122</v>
       </c>
       <c r="S26" t="n">
-        <v>4875.553505495915</v>
+        <v>4921.029988352122</v>
       </c>
       <c r="T26" t="n">
-        <v>4662.819806572012</v>
+        <v>4708.296289428219</v>
       </c>
       <c r="U26" t="n">
-        <v>4403.731526106331</v>
+        <v>4449.208008962539</v>
       </c>
       <c r="V26" t="n">
-        <v>4041.114576040158</v>
+        <v>4086.591058896365</v>
       </c>
       <c r="W26" t="n">
-        <v>3636.259121451191</v>
+        <v>3681.735604307399</v>
       </c>
       <c r="X26" t="n">
-        <v>3217.116658030502</v>
+        <v>3262.59314088671</v>
       </c>
       <c r="Y26" t="n">
-        <v>2808.830534330155</v>
+        <v>2854.307017186363</v>
       </c>
     </row>
     <row r="27">
@@ -6296,25 +6296,25 @@
         <v>215.9881100187703</v>
       </c>
       <c r="G27" t="n">
-        <v>131.4993728857031</v>
+        <v>131.499372885703</v>
       </c>
       <c r="H27" t="n">
-        <v>98.42059976704246</v>
+        <v>98.42059976704245</v>
       </c>
       <c r="I27" t="n">
         <v>154.7313965869404</v>
       </c>
       <c r="J27" t="n">
-        <v>237.731815790508</v>
+        <v>237.7318157905079</v>
       </c>
       <c r="K27" t="n">
-        <v>379.5927523216693</v>
+        <v>379.5927523216692</v>
       </c>
       <c r="L27" t="n">
-        <v>570.3422882147388</v>
+        <v>570.3422882147387</v>
       </c>
       <c r="M27" t="n">
-        <v>792.9379995275885</v>
+        <v>792.9379995275884</v>
       </c>
       <c r="N27" t="n">
         <v>1021.425156964678</v>
@@ -6381,10 +6381,10 @@
         <v>164.4817391888455</v>
       </c>
       <c r="I28" t="n">
-        <v>98.42059976704246</v>
+        <v>98.42059976704245</v>
       </c>
       <c r="J28" t="n">
-        <v>150.4923954319555</v>
+        <v>150.4923954319554</v>
       </c>
       <c r="K28" t="n">
         <v>346.4964205661236</v>
@@ -6457,43 +6457,43 @@
         <v>370.3938164118732</v>
       </c>
       <c r="H29" t="n">
-        <v>98.42059976704246</v>
+        <v>98.42059976704245</v>
       </c>
       <c r="I29" t="n">
         <v>161.312984391236</v>
       </c>
       <c r="J29" t="n">
-        <v>300.670563132937</v>
+        <v>735.9252505858548</v>
       </c>
       <c r="K29" t="n">
-        <v>1343.881740899326</v>
+        <v>1779.136428352244</v>
       </c>
       <c r="L29" t="n">
-        <v>1602.992138487285</v>
+        <v>2830.878636993578</v>
       </c>
       <c r="M29" t="n">
-        <v>1891.302381032579</v>
+        <v>3119.188879538873</v>
       </c>
       <c r="N29" t="n">
-        <v>2184.277784721335</v>
+        <v>3412.164283227629</v>
       </c>
       <c r="O29" t="n">
-        <v>3402.232706838486</v>
+        <v>3688.812649126576</v>
       </c>
       <c r="P29" t="n">
-        <v>4466.65556148048</v>
+        <v>3924.925628935174</v>
       </c>
       <c r="Q29" t="n">
-        <v>4817.889494316766</v>
+        <v>4648.735429563709</v>
       </c>
       <c r="R29" t="n">
-        <v>4921.029988352123</v>
+        <v>4921.029988352122</v>
       </c>
       <c r="S29" t="n">
-        <v>4921.029988352123</v>
+        <v>4875.553505495913</v>
       </c>
       <c r="T29" t="n">
-        <v>4786.099644873713</v>
+        <v>4662.81980657201</v>
       </c>
       <c r="U29" t="n">
         <v>4527.011364408033</v>
@@ -6533,37 +6533,37 @@
         <v>215.9881100187703</v>
       </c>
       <c r="G30" t="n">
-        <v>131.4993728857031</v>
+        <v>131.499372885703</v>
       </c>
       <c r="H30" t="n">
-        <v>98.42059976704246</v>
+        <v>98.42059976704245</v>
       </c>
       <c r="I30" t="n">
-        <v>128.6677234264828</v>
+        <v>154.7313965869404</v>
       </c>
       <c r="J30" t="n">
-        <v>211.6681426300504</v>
+        <v>287.4540773303447</v>
       </c>
       <c r="K30" t="n">
-        <v>546.4877919558454</v>
+        <v>429.3150138615059</v>
       </c>
       <c r="L30" t="n">
-        <v>737.237327848915</v>
+        <v>620.0645497545755</v>
       </c>
       <c r="M30" t="n">
-        <v>959.8330391617648</v>
+        <v>842.6602610674252</v>
       </c>
       <c r="N30" t="n">
-        <v>1188.320196598854</v>
+        <v>1071.147418504515</v>
       </c>
       <c r="O30" t="n">
-        <v>1397.341307064289</v>
+        <v>1280.168528969949</v>
       </c>
       <c r="P30" t="n">
-        <v>1565.099175839412</v>
+        <v>1447.926397745072</v>
       </c>
       <c r="Q30" t="n">
-        <v>1677.240868448884</v>
+        <v>1560.068090354544</v>
       </c>
       <c r="R30" t="n">
         <v>1731.785872591946</v>
@@ -6618,25 +6618,25 @@
         <v>164.4817391888455</v>
       </c>
       <c r="I31" t="n">
-        <v>98.42059976704246</v>
+        <v>98.42059976704245</v>
       </c>
       <c r="J31" t="n">
-        <v>150.4923954319555</v>
+        <v>150.4923954319554</v>
       </c>
       <c r="K31" t="n">
-        <v>346.4964205661236</v>
+        <v>510.8208061041053</v>
       </c>
       <c r="L31" t="n">
-        <v>874.206385438622</v>
+        <v>1038.530770976603</v>
       </c>
       <c r="M31" t="n">
-        <v>1449.142737208721</v>
+        <v>1613.467122746702</v>
       </c>
       <c r="N31" t="n">
-        <v>2004.108822921011</v>
+        <v>2168.433208458993</v>
       </c>
       <c r="O31" t="n">
-        <v>2527.881489788308</v>
+        <v>2692.20587532629</v>
       </c>
       <c r="P31" t="n">
         <v>2964.4668419721</v>
@@ -6694,52 +6694,52 @@
         <v>370.3938164118732</v>
       </c>
       <c r="H32" t="n">
-        <v>98.42059976704246</v>
+        <v>98.42059976704245</v>
       </c>
       <c r="I32" t="n">
         <v>161.312984391236</v>
       </c>
       <c r="J32" t="n">
-        <v>735.9252505858549</v>
+        <v>300.670563132937</v>
       </c>
       <c r="K32" t="n">
-        <v>1779.136428352244</v>
+        <v>509.531448941148</v>
       </c>
       <c r="L32" t="n">
-        <v>2549.067548118777</v>
+        <v>1727.486371058298</v>
       </c>
       <c r="M32" t="n">
-        <v>2837.377790664072</v>
+        <v>2015.796613603593</v>
       </c>
       <c r="N32" t="n">
-        <v>3130.353194352828</v>
+        <v>3233.751535720743</v>
       </c>
       <c r="O32" t="n">
-        <v>3407.001560251775</v>
+        <v>4404.465499838228</v>
       </c>
       <c r="P32" t="n">
-        <v>4471.42441489377</v>
+        <v>4640.578479646825</v>
       </c>
       <c r="Q32" t="n">
-        <v>4648.73542956371</v>
+        <v>4817.889494316765</v>
       </c>
       <c r="R32" t="n">
-        <v>4921.029988352123</v>
+        <v>4921.029988352122</v>
       </c>
       <c r="S32" t="n">
-        <v>4875.553505495915</v>
+        <v>4875.553505495913</v>
       </c>
       <c r="T32" t="n">
-        <v>4786.099644873713</v>
+        <v>4662.81980657201</v>
       </c>
       <c r="U32" t="n">
-        <v>4527.011364408033</v>
+        <v>4403.73152610633</v>
       </c>
       <c r="V32" t="n">
-        <v>4164.394414341859</v>
+        <v>4041.114576040156</v>
       </c>
       <c r="W32" t="n">
-        <v>3759.538959752892</v>
+        <v>3636.259121451189</v>
       </c>
       <c r="X32" t="n">
         <v>3340.396496332203</v>
@@ -6770,34 +6770,34 @@
         <v>215.9881100187703</v>
       </c>
       <c r="G33" t="n">
-        <v>131.4993728857031</v>
+        <v>131.499372885703</v>
       </c>
       <c r="H33" t="n">
-        <v>98.42059976704246</v>
+        <v>98.42059976704245</v>
       </c>
       <c r="I33" t="n">
         <v>128.6677234264828</v>
       </c>
       <c r="J33" t="n">
-        <v>211.6681426300504</v>
+        <v>404.6268554246844</v>
       </c>
       <c r="K33" t="n">
-        <v>353.5290791612117</v>
+        <v>546.4877919558456</v>
       </c>
       <c r="L33" t="n">
-        <v>544.2786150542812</v>
+        <v>737.2373278489152</v>
       </c>
       <c r="M33" t="n">
-        <v>766.8743263671309</v>
+        <v>959.8330391617649</v>
       </c>
       <c r="N33" t="n">
-        <v>995.3614838042208</v>
+        <v>1188.320196598854</v>
       </c>
       <c r="O33" t="n">
-        <v>1204.382594269655</v>
+        <v>1397.341307064289</v>
       </c>
       <c r="P33" t="n">
-        <v>1372.140463044778</v>
+        <v>1565.099175839412</v>
       </c>
       <c r="Q33" t="n">
         <v>1677.240868448884</v>
@@ -6855,10 +6855,10 @@
         <v>164.4817391888455</v>
       </c>
       <c r="I34" t="n">
-        <v>98.42059976704246</v>
+        <v>98.42059976704245</v>
       </c>
       <c r="J34" t="n">
-        <v>150.4923954319555</v>
+        <v>150.4923954319554</v>
       </c>
       <c r="K34" t="n">
         <v>346.4964205661236</v>
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>933.1642335790633</v>
+        <v>2195.413811309003</v>
       </c>
       <c r="C35" t="n">
-        <v>495.0217607624866</v>
+        <v>1757.271338492426</v>
       </c>
       <c r="D35" t="n">
-        <v>459.7193792343735</v>
+        <v>1321.361553666871</v>
       </c>
       <c r="E35" t="n">
-        <v>459.7193792343735</v>
+        <v>887.5868088251657</v>
       </c>
       <c r="F35" t="n">
         <v>459.7193792343735</v>
       </c>
       <c r="G35" t="n">
-        <v>59.99682557392713</v>
+        <v>59.99682557392711</v>
       </c>
       <c r="H35" t="n">
-        <v>59.99682557392713</v>
+        <v>59.99682557392711</v>
       </c>
       <c r="I35" t="n">
-        <v>122.8892101981207</v>
+        <v>122.8892101981206</v>
       </c>
       <c r="J35" t="n">
-        <v>262.2467889398217</v>
+        <v>697.5014763927395</v>
       </c>
       <c r="K35" t="n">
-        <v>471.1076747480327</v>
+        <v>906.3623622009505</v>
       </c>
       <c r="L35" t="n">
-        <v>730.2180723359911</v>
+        <v>1165.472759788909</v>
       </c>
       <c r="M35" t="n">
-        <v>1018.528314881286</v>
+        <v>1453.783002334204</v>
       </c>
       <c r="N35" t="n">
-        <v>1311.503718570042</v>
+        <v>1746.75840602296</v>
       </c>
       <c r="O35" t="n">
-        <v>1767.623939470809</v>
+        <v>2023.406771921907</v>
       </c>
       <c r="P35" t="n">
-        <v>2003.736919279407</v>
+        <v>2259.519751730506</v>
       </c>
       <c r="Q35" t="n">
-        <v>2727.546719907942</v>
+        <v>2727.546719907941</v>
       </c>
       <c r="R35" t="n">
-        <v>2999.841278696356</v>
+        <v>2999.841278696355</v>
       </c>
       <c r="S35" t="n">
-        <v>2954.364795840148</v>
+        <v>2954.364795840147</v>
       </c>
       <c r="T35" t="n">
-        <v>2954.364795840148</v>
+        <v>2954.364795840147</v>
       </c>
       <c r="U35" t="n">
-        <v>2954.364795840148</v>
+        <v>2954.364795840147</v>
       </c>
       <c r="V35" t="n">
-        <v>2591.747845773974</v>
+        <v>2954.364795840147</v>
       </c>
       <c r="W35" t="n">
-        <v>2186.892391185007</v>
+        <v>2549.50934125118</v>
       </c>
       <c r="X35" t="n">
-        <v>1767.749927764318</v>
+        <v>2195.413811309003</v>
       </c>
       <c r="Y35" t="n">
-        <v>1359.463804063971</v>
+        <v>2195.413811309003</v>
       </c>
     </row>
     <row r="36">
@@ -7010,34 +7010,34 @@
         <v>93.0755986925877</v>
       </c>
       <c r="H36" t="n">
-        <v>59.99682557392713</v>
+        <v>59.99682557392711</v>
       </c>
       <c r="I36" t="n">
-        <v>90.2439492333675</v>
+        <v>116.3076223938251</v>
       </c>
       <c r="J36" t="n">
-        <v>366.2030812315686</v>
+        <v>199.3080415973926</v>
       </c>
       <c r="K36" t="n">
-        <v>508.0640177627299</v>
+        <v>341.1689781285539</v>
       </c>
       <c r="L36" t="n">
-        <v>698.8135536557994</v>
+        <v>531.9185140216234</v>
       </c>
       <c r="M36" t="n">
-        <v>921.4092649686492</v>
+        <v>754.5142253344732</v>
       </c>
       <c r="N36" t="n">
-        <v>1149.896422405739</v>
+        <v>983.0013827715628</v>
       </c>
       <c r="O36" t="n">
-        <v>1358.917532871174</v>
+        <v>1192.022493236997</v>
       </c>
       <c r="P36" t="n">
-        <v>1526.675401646297</v>
+        <v>1359.78036201212</v>
       </c>
       <c r="Q36" t="n">
-        <v>1638.817094255768</v>
+        <v>1521.644316161428</v>
       </c>
       <c r="R36" t="n">
         <v>1693.362098398831</v>
@@ -7074,46 +7074,46 @@
         <v>1109.023436035784</v>
       </c>
       <c r="C37" t="n">
-        <v>936.4617245190093</v>
+        <v>936.461724519009</v>
       </c>
       <c r="D37" t="n">
-        <v>770.5837317205321</v>
+        <v>770.5837317205317</v>
       </c>
       <c r="E37" t="n">
-        <v>600.8257279712693</v>
+        <v>600.8257279712689</v>
       </c>
       <c r="F37" t="n">
-        <v>424.1186739330255</v>
+        <v>424.1186739330251</v>
       </c>
       <c r="G37" t="n">
-        <v>259.2788708688854</v>
+        <v>259.2788708688852</v>
       </c>
       <c r="H37" t="n">
-        <v>126.0579649957303</v>
+        <v>126.0579649957301</v>
       </c>
       <c r="I37" t="n">
-        <v>59.99682557392713</v>
+        <v>59.99682557392711</v>
       </c>
       <c r="J37" t="n">
-        <v>112.0686212388401</v>
+        <v>198.6483064035299</v>
       </c>
       <c r="K37" t="n">
-        <v>472.3970319109899</v>
+        <v>558.9767170756797</v>
       </c>
       <c r="L37" t="n">
-        <v>1000.106996783488</v>
+        <v>1086.686681948178</v>
       </c>
       <c r="M37" t="n">
-        <v>1575.043348553587</v>
+        <v>1661.623033718276</v>
       </c>
       <c r="N37" t="n">
-        <v>2130.009434265877</v>
+        <v>2216.589119430567</v>
       </c>
       <c r="O37" t="n">
-        <v>2653.782101133174</v>
+        <v>2321.264940730861</v>
       </c>
       <c r="P37" t="n">
-        <v>2926.043067778985</v>
+        <v>2757.850292914653</v>
       </c>
       <c r="Q37" t="n">
         <v>2987.716374950068</v>
@@ -7125,7 +7125,7 @@
         <v>2853.696015917373</v>
       </c>
       <c r="T37" t="n">
-        <v>2611.027404020513</v>
+        <v>2611.027404020512</v>
       </c>
       <c r="U37" t="n">
         <v>2332.635392650529</v>
@@ -7140,7 +7140,7 @@
         <v>1528.261725440663</v>
       </c>
       <c r="Y37" t="n">
-        <v>1300.842054754772</v>
+        <v>1300.842054754771</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1746.113121090413</v>
+        <v>1795.691257648556</v>
       </c>
       <c r="C38" t="n">
-        <v>1307.970648273836</v>
+        <v>1357.54878483198</v>
       </c>
       <c r="D38" t="n">
-        <v>872.0608634482805</v>
+        <v>921.6390000064241</v>
       </c>
       <c r="E38" t="n">
-        <v>438.2861186065757</v>
+        <v>487.8642551647193</v>
       </c>
       <c r="F38" t="n">
-        <v>59.99682557392713</v>
+        <v>59.99682557392711</v>
       </c>
       <c r="G38" t="n">
-        <v>59.99682557392713</v>
+        <v>59.99682557392711</v>
       </c>
       <c r="H38" t="n">
-        <v>59.99682557392713</v>
+        <v>59.99682557392711</v>
       </c>
       <c r="I38" t="n">
-        <v>122.8892101981207</v>
+        <v>122.8892101981206</v>
       </c>
       <c r="J38" t="n">
-        <v>262.2467889398217</v>
+        <v>262.2467889398216</v>
       </c>
       <c r="K38" t="n">
         <v>471.1076747480327</v>
       </c>
       <c r="L38" t="n">
-        <v>730.2180723359911</v>
+        <v>730.218072335991</v>
       </c>
       <c r="M38" t="n">
-        <v>1018.528314881286</v>
+        <v>1407.305283926006</v>
       </c>
       <c r="N38" t="n">
-        <v>1311.503718570042</v>
+        <v>1700.280687614762</v>
       </c>
       <c r="O38" t="n">
-        <v>2053.96443504739</v>
+        <v>1976.92905351371</v>
       </c>
       <c r="P38" t="n">
-        <v>2550.235705238002</v>
+        <v>2719.389769991058</v>
       </c>
       <c r="Q38" t="n">
-        <v>2727.546719907942</v>
+        <v>2896.700784660998</v>
       </c>
       <c r="R38" t="n">
-        <v>2999.841278696356</v>
+        <v>2999.841278696355</v>
       </c>
       <c r="S38" t="n">
-        <v>2999.841278696356</v>
+        <v>2954.364795840147</v>
       </c>
       <c r="T38" t="n">
-        <v>2999.841278696356</v>
+        <v>2954.364795840147</v>
       </c>
       <c r="U38" t="n">
-        <v>2999.841278696356</v>
+        <v>2954.364795840147</v>
       </c>
       <c r="V38" t="n">
-        <v>2999.841278696356</v>
+        <v>2641.133291554153</v>
       </c>
       <c r="W38" t="n">
-        <v>2999.841278696356</v>
+        <v>2641.133291554153</v>
       </c>
       <c r="X38" t="n">
-        <v>2580.698815275667</v>
+        <v>2221.990828133464</v>
       </c>
       <c r="Y38" t="n">
-        <v>2172.41269157532</v>
+        <v>2221.990828133464</v>
       </c>
     </row>
     <row r="39">
@@ -7247,34 +7247,34 @@
         <v>93.0755986925877</v>
       </c>
       <c r="H39" t="n">
-        <v>59.99682557392713</v>
+        <v>59.99682557392711</v>
       </c>
       <c r="I39" t="n">
-        <v>90.2439492333675</v>
+        <v>116.3076223938251</v>
       </c>
       <c r="J39" t="n">
-        <v>173.244368436935</v>
+        <v>249.0303031372291</v>
       </c>
       <c r="K39" t="n">
-        <v>315.1053049680963</v>
+        <v>390.8912396683904</v>
       </c>
       <c r="L39" t="n">
-        <v>505.8548408611658</v>
+        <v>581.6407755614599</v>
       </c>
       <c r="M39" t="n">
-        <v>728.4505521740156</v>
+        <v>804.2364868743095</v>
       </c>
       <c r="N39" t="n">
-        <v>956.9377096111053</v>
+        <v>1032.723644311399</v>
       </c>
       <c r="O39" t="n">
-        <v>1165.95882007654</v>
+        <v>1241.744754776834</v>
       </c>
       <c r="P39" t="n">
-        <v>1333.716688851663</v>
+        <v>1409.502623551957</v>
       </c>
       <c r="Q39" t="n">
-        <v>1638.817094255768</v>
+        <v>1521.644316161428</v>
       </c>
       <c r="R39" t="n">
         <v>1693.362098398831</v>
@@ -7311,73 +7311,73 @@
         <v>1109.023436035784</v>
       </c>
       <c r="C40" t="n">
-        <v>936.4617245190094</v>
+        <v>936.4617245190085</v>
       </c>
       <c r="D40" t="n">
-        <v>770.5837317205321</v>
+        <v>770.5837317205312</v>
       </c>
       <c r="E40" t="n">
-        <v>600.8257279712693</v>
+        <v>600.8257279712684</v>
       </c>
       <c r="F40" t="n">
-        <v>424.1186739330255</v>
+        <v>424.1186739330246</v>
       </c>
       <c r="G40" t="n">
         <v>259.2788708688852</v>
       </c>
       <c r="H40" t="n">
-        <v>126.0579649957302</v>
+        <v>126.0579649957301</v>
       </c>
       <c r="I40" t="n">
-        <v>59.99682557392713</v>
+        <v>59.99682557392711</v>
       </c>
       <c r="J40" t="n">
-        <v>112.0686212388401</v>
+        <v>198.64830640353</v>
       </c>
       <c r="K40" t="n">
-        <v>308.0726463730088</v>
+        <v>558.9767170756797</v>
       </c>
       <c r="L40" t="n">
-        <v>835.7826112455072</v>
+        <v>1086.686681948178</v>
       </c>
       <c r="M40" t="n">
-        <v>1410.718963015606</v>
+        <v>1242.526188151273</v>
       </c>
       <c r="N40" t="n">
-        <v>1965.685048727896</v>
+        <v>1797.492273863563</v>
       </c>
       <c r="O40" t="n">
-        <v>2489.457715595193</v>
+        <v>2321.26494073086</v>
       </c>
       <c r="P40" t="n">
-        <v>2926.043067778985</v>
+        <v>2757.850292914652</v>
       </c>
       <c r="Q40" t="n">
-        <v>2987.716374950068</v>
+        <v>2987.716374950067</v>
       </c>
       <c r="R40" t="n">
-        <v>2999.841278696356</v>
+        <v>2999.841278696355</v>
       </c>
       <c r="S40" t="n">
-        <v>2853.696015917373</v>
+        <v>2853.696015917372</v>
       </c>
       <c r="T40" t="n">
-        <v>2611.027404020513</v>
+        <v>2611.027404020512</v>
       </c>
       <c r="U40" t="n">
-        <v>2332.635392650529</v>
+        <v>2332.635392650528</v>
       </c>
       <c r="V40" t="n">
-        <v>2045.679884520959</v>
+        <v>2045.679884520958</v>
       </c>
       <c r="W40" t="n">
-        <v>1773.653480107251</v>
+        <v>1773.65348010725</v>
       </c>
       <c r="X40" t="n">
         <v>1528.261725440663</v>
       </c>
       <c r="Y40" t="n">
-        <v>1300.842054754772</v>
+        <v>1300.842054754771</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1251.863027660621</v>
+        <v>1621.529193565585</v>
       </c>
       <c r="C41" t="n">
-        <v>1251.863027660621</v>
+        <v>1183.386720749009</v>
       </c>
       <c r="D41" t="n">
-        <v>815.9532428350653</v>
+        <v>747.4769359234531</v>
       </c>
       <c r="E41" t="n">
-        <v>382.1784979933605</v>
+        <v>313.7021910817482</v>
       </c>
       <c r="F41" t="n">
-        <v>41.7289744369175</v>
+        <v>313.7021910817482</v>
       </c>
       <c r="G41" t="n">
-        <v>41.7289744369175</v>
+        <v>313.7021910817482</v>
       </c>
       <c r="H41" t="n">
-        <v>41.7289744369175</v>
+        <v>41.72897443691752</v>
       </c>
       <c r="I41" t="n">
         <v>104.621359061111</v>
@@ -7417,7 +7417,7 @@
         <v>452.8398236110231</v>
       </c>
       <c r="L41" t="n">
-        <v>711.9502211989816</v>
+        <v>711.9502211989815</v>
       </c>
       <c r="M41" t="n">
         <v>1000.260463744276</v>
@@ -7435,28 +7435,28 @@
         <v>1983.308227810518</v>
       </c>
       <c r="R41" t="n">
-        <v>2086.448721845875</v>
+        <v>2086.448721845876</v>
       </c>
       <c r="S41" t="n">
-        <v>2086.448721845875</v>
+        <v>2086.448721845876</v>
       </c>
       <c r="T41" t="n">
-        <v>2086.448721845875</v>
+        <v>2086.448721845876</v>
       </c>
       <c r="U41" t="n">
-        <v>2086.448721845875</v>
+        <v>2086.448721845876</v>
       </c>
       <c r="V41" t="n">
-        <v>2086.448721845875</v>
+        <v>1723.831771779702</v>
       </c>
       <c r="W41" t="n">
-        <v>2086.448721845875</v>
+        <v>1723.831771779702</v>
       </c>
       <c r="X41" t="n">
-        <v>2086.448721845875</v>
+        <v>1621.529193565585</v>
       </c>
       <c r="Y41" t="n">
-        <v>1678.162598145529</v>
+        <v>1621.529193565585</v>
       </c>
     </row>
     <row r="42">
@@ -7481,37 +7481,37 @@
         <v>159.2964846886454</v>
       </c>
       <c r="G42" t="n">
-        <v>74.80774755557809</v>
+        <v>74.8077475555781</v>
       </c>
       <c r="H42" t="n">
-        <v>41.7289744369175</v>
+        <v>41.72897443691752</v>
       </c>
       <c r="I42" t="n">
-        <v>71.97609809635787</v>
+        <v>98.03977125681548</v>
       </c>
       <c r="J42" t="n">
-        <v>154.9765172999254</v>
+        <v>230.7624520002196</v>
       </c>
       <c r="K42" t="n">
-        <v>489.7961666257203</v>
+        <v>372.6233885313808</v>
       </c>
       <c r="L42" t="n">
-        <v>680.5457025187899</v>
+        <v>563.3729244244504</v>
       </c>
       <c r="M42" t="n">
-        <v>903.1414138316396</v>
+        <v>785.9686357373</v>
       </c>
       <c r="N42" t="n">
-        <v>1131.62857126873</v>
+        <v>1014.45579317439</v>
       </c>
       <c r="O42" t="n">
-        <v>1340.649681734164</v>
+        <v>1223.476903639824</v>
       </c>
       <c r="P42" t="n">
-        <v>1508.407550509287</v>
+        <v>1391.234772414947</v>
       </c>
       <c r="Q42" t="n">
-        <v>1620.549243118759</v>
+        <v>1503.376465024419</v>
       </c>
       <c r="R42" t="n">
         <v>1675.094247261821</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>390.9977399919363</v>
+        <v>1024.694445476971</v>
       </c>
       <c r="C43" t="n">
-        <v>218.4360284751613</v>
+        <v>852.1327339601963</v>
       </c>
       <c r="D43" t="n">
-        <v>218.4360284751613</v>
+        <v>686.254741161719</v>
       </c>
       <c r="E43" t="n">
-        <v>218.4360284751613</v>
+        <v>516.4967374124562</v>
       </c>
       <c r="F43" t="n">
-        <v>41.7289744369175</v>
+        <v>339.7896833742125</v>
       </c>
       <c r="G43" t="n">
-        <v>41.7289744369175</v>
+        <v>174.9498803100726</v>
       </c>
       <c r="H43" t="n">
-        <v>41.7289744369175</v>
+        <v>41.72897443691752</v>
       </c>
       <c r="I43" t="n">
-        <v>41.7289744369175</v>
+        <v>41.72897443691752</v>
       </c>
       <c r="J43" t="n">
-        <v>180.3804552665204</v>
+        <v>93.80077010183048</v>
       </c>
       <c r="K43" t="n">
-        <v>508.9836597909605</v>
+        <v>179.3707262028447</v>
       </c>
       <c r="L43" t="n">
-        <v>618.4837428954978</v>
+        <v>374.3838767444918</v>
       </c>
       <c r="M43" t="n">
-        <v>1134.879801552352</v>
+        <v>890.7799354013459</v>
       </c>
       <c r="N43" t="n">
-        <v>1651.275860209206</v>
+        <v>1407.1759940582</v>
       </c>
       <c r="O43" t="n">
-        <v>1755.379277850722</v>
+        <v>1923.572052715054</v>
       </c>
       <c r="P43" t="n">
-        <v>1844.457736064172</v>
+        <v>2012.650510928505</v>
       </c>
       <c r="Q43" t="n">
-        <v>2074.323818099587</v>
+        <v>2074.323818099588</v>
       </c>
       <c r="R43" t="n">
-        <v>2086.448721845875</v>
+        <v>2086.448721845876</v>
       </c>
       <c r="S43" t="n">
-        <v>2086.448721845875</v>
+        <v>1940.303459066893</v>
       </c>
       <c r="T43" t="n">
-        <v>1893.001707976664</v>
+        <v>1940.303459066893</v>
       </c>
       <c r="U43" t="n">
-        <v>1614.609696606681</v>
+        <v>1661.911447696909</v>
       </c>
       <c r="V43" t="n">
-        <v>1327.654188477111</v>
+        <v>1374.955939567339</v>
       </c>
       <c r="W43" t="n">
-        <v>1055.627784063403</v>
+        <v>1216.513064195959</v>
       </c>
       <c r="X43" t="n">
-        <v>810.2360293968152</v>
+        <v>1216.513064195959</v>
       </c>
       <c r="Y43" t="n">
-        <v>582.8163587109234</v>
+        <v>1216.513064195959</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>477.638759262473</v>
+        <v>1614.626742456293</v>
       </c>
       <c r="C44" t="n">
-        <v>477.638759262473</v>
+        <v>1305.228742513712</v>
       </c>
       <c r="D44" t="n">
-        <v>41.7289744369175</v>
+        <v>869.3189576881562</v>
       </c>
       <c r="E44" t="n">
-        <v>41.7289744369175</v>
+        <v>869.3189576881562</v>
       </c>
       <c r="F44" t="n">
-        <v>41.7289744369175</v>
+        <v>441.4515280973638</v>
       </c>
       <c r="G44" t="n">
-        <v>41.7289744369175</v>
+        <v>41.72897443691752</v>
       </c>
       <c r="H44" t="n">
-        <v>41.7289744369175</v>
+        <v>41.72897443691752</v>
       </c>
       <c r="I44" t="n">
-        <v>104.621359061111</v>
+        <v>104.6213590611113</v>
       </c>
       <c r="J44" t="n">
-        <v>243.9789378028121</v>
+        <v>243.9789378028124</v>
       </c>
       <c r="K44" t="n">
-        <v>452.8398236110231</v>
+        <v>452.8398236110235</v>
       </c>
       <c r="L44" t="n">
-        <v>711.9502211989816</v>
+        <v>711.9502211989818</v>
       </c>
       <c r="M44" t="n">
-        <v>1000.260463744276</v>
+        <v>1000.260463744277</v>
       </c>
       <c r="N44" t="n">
-        <v>1293.235867433032</v>
+        <v>1293.235867433033</v>
       </c>
       <c r="O44" t="n">
-        <v>1569.884233331979</v>
+        <v>1569.88423333198</v>
       </c>
       <c r="P44" t="n">
         <v>1805.997213140578</v>
       </c>
       <c r="Q44" t="n">
-        <v>1983.308227810518</v>
+        <v>1983.308227810519</v>
       </c>
       <c r="R44" t="n">
-        <v>2086.448721845875</v>
+        <v>2086.448721845876</v>
       </c>
       <c r="S44" t="n">
-        <v>2086.448721845875</v>
+        <v>2086.448721845876</v>
       </c>
       <c r="T44" t="n">
         <v>1873.715022921973</v>
       </c>
       <c r="U44" t="n">
-        <v>1685.697743234244</v>
+        <v>1614.626742456293</v>
       </c>
       <c r="V44" t="n">
-        <v>1323.08079316807</v>
+        <v>1614.626742456293</v>
       </c>
       <c r="W44" t="n">
-        <v>1323.08079316807</v>
+        <v>1614.626742456293</v>
       </c>
       <c r="X44" t="n">
-        <v>903.9383297473807</v>
+        <v>1614.626742456293</v>
       </c>
       <c r="Y44" t="n">
-        <v>903.9383297473807</v>
+        <v>1614.626742456293</v>
       </c>
     </row>
     <row r="45">
@@ -7718,37 +7718,37 @@
         <v>159.2964846886454</v>
       </c>
       <c r="G45" t="n">
-        <v>74.80774755557809</v>
+        <v>74.8077475555781</v>
       </c>
       <c r="H45" t="n">
-        <v>41.7289744369175</v>
+        <v>41.72897443691752</v>
       </c>
       <c r="I45" t="n">
-        <v>71.97609809635787</v>
+        <v>98.03977125681548</v>
       </c>
       <c r="J45" t="n">
-        <v>347.935230094559</v>
+        <v>181.040190460383</v>
       </c>
       <c r="K45" t="n">
-        <v>489.7961666257203</v>
+        <v>322.9011269915443</v>
       </c>
       <c r="L45" t="n">
-        <v>680.5457025187899</v>
+        <v>513.6506628846138</v>
       </c>
       <c r="M45" t="n">
-        <v>903.1414138316396</v>
+        <v>736.2463741974635</v>
       </c>
       <c r="N45" t="n">
-        <v>1131.62857126873</v>
+        <v>964.7335316345533</v>
       </c>
       <c r="O45" t="n">
-        <v>1340.649681734164</v>
+        <v>1173.754642099988</v>
       </c>
       <c r="P45" t="n">
-        <v>1508.407550509287</v>
+        <v>1341.512510875111</v>
       </c>
       <c r="Q45" t="n">
-        <v>1620.549243118759</v>
+        <v>1503.376465024419</v>
       </c>
       <c r="R45" t="n">
         <v>1675.094247261821</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1090.755584898774</v>
+        <v>390.9977399919364</v>
       </c>
       <c r="C46" t="n">
-        <v>918.1938733819992</v>
+        <v>218.4360284751613</v>
       </c>
       <c r="D46" t="n">
-        <v>752.3158805835219</v>
+        <v>218.4360284751613</v>
       </c>
       <c r="E46" t="n">
-        <v>582.5578768342592</v>
+        <v>218.4360284751613</v>
       </c>
       <c r="F46" t="n">
-        <v>405.8508227960154</v>
+        <v>41.72897443691752</v>
       </c>
       <c r="G46" t="n">
-        <v>241.0110197318756</v>
+        <v>41.72897443691752</v>
       </c>
       <c r="H46" t="n">
-        <v>107.7901138587205</v>
+        <v>41.72897443691752</v>
       </c>
       <c r="I46" t="n">
-        <v>41.7289744369175</v>
+        <v>41.72897443691752</v>
       </c>
       <c r="J46" t="n">
         <v>93.80077010183048</v>
@@ -7812,46 +7812,46 @@
         <v>179.3707262028447</v>
       </c>
       <c r="L46" t="n">
-        <v>288.8708093073821</v>
+        <v>374.3838767444918</v>
       </c>
       <c r="M46" t="n">
-        <v>805.2668679642362</v>
+        <v>890.7799354013459</v>
       </c>
       <c r="N46" t="n">
-        <v>1321.66292662109</v>
+        <v>1407.1759940582</v>
       </c>
       <c r="O46" t="n">
-        <v>1755.379277850722</v>
+        <v>1923.572052715054</v>
       </c>
       <c r="P46" t="n">
-        <v>1844.457736064172</v>
+        <v>2012.650510928505</v>
       </c>
       <c r="Q46" t="n">
-        <v>2074.323818099587</v>
+        <v>2074.323818099588</v>
       </c>
       <c r="R46" t="n">
-        <v>2086.448721845875</v>
+        <v>2086.448721845876</v>
       </c>
       <c r="S46" t="n">
-        <v>1940.303459066892</v>
+        <v>2086.448721845876</v>
       </c>
       <c r="T46" t="n">
-        <v>1697.634847170032</v>
+        <v>1843.780109949015</v>
       </c>
       <c r="U46" t="n">
-        <v>1697.634847170032</v>
+        <v>1614.609696606681</v>
       </c>
       <c r="V46" t="n">
-        <v>1697.634847170032</v>
+        <v>1327.654188477111</v>
       </c>
       <c r="W46" t="n">
-        <v>1697.634847170032</v>
+        <v>1055.627784063403</v>
       </c>
       <c r="X46" t="n">
-        <v>1452.243092503444</v>
+        <v>810.2360293968152</v>
       </c>
       <c r="Y46" t="n">
-        <v>1282.574203617761</v>
+        <v>582.8163587109235</v>
       </c>
     </row>
   </sheetData>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="N2" t="n">
-        <v>39.64570999510202</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>41.31500304752734</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,34 +8054,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
+        <v>41.31500304752735</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>41.31500304752736</v>
       </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="P3" t="n">
-        <v>13.31876740878121</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8139,10 +8139,10 @@
         <v>41.31500304752735</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -8151,10 +8151,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>39.64570999510202</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>41.31500304752734</v>
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="K5" t="n">
+      <c r="P5" t="n">
         <v>41.31500304752736</v>
       </c>
-      <c r="L5" t="n">
+      <c r="Q5" t="n">
+        <v>41.31500304752734</v>
+      </c>
+      <c r="R5" t="n">
         <v>39.64570999510201</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>41.31500304752734</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8303,13 +8303,13 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>13.31876740878122</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>13.31876740878122</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>41.31500304752735</v>
@@ -8376,22 +8376,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="M7" t="n">
-        <v>41.31500304752735</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="N7" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="P7" t="n">
-        <v>39.64570999510201</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -8452,22 +8452,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="M8" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>39.64570999510201</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -8531,7 +8531,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8540,22 +8540,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="N9" t="n">
-        <v>41.31500304752736</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
         <v>13.31876740878121</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>41.31500304752734</v>
-      </c>
-      <c r="R9" t="n">
-        <v>41.31500304752734</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>39.64570999510202</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="P10" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>41.31500304752734</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>50.22450660589544</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8783,7 +8783,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>76.5514491922163</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8850,25 +8850,25 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>100.6942365668458</v>
+        <v>411.0060359114314</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>404.9935091592616</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>407.7664405072812</v>
       </c>
       <c r="O13" t="n">
-        <v>416.4572131468066</v>
+        <v>91.82801303043584</v>
       </c>
       <c r="P13" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>194.9077907016501</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>50.22450660589561</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9087,16 +9087,16 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
-        <v>4.373785591354988</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>411.0060359114311</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>404.9935091592613</v>
+        <v>404.9935091592616</v>
       </c>
       <c r="N16" t="n">
-        <v>407.766440507281</v>
+        <v>375.7207777318174</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -9105,7 +9105,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9184,7 +9184,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>293.6524782903998</v>
+        <v>293.6524782903994</v>
       </c>
       <c r="R17" t="n">
         <v>170.8626916697543</v>
@@ -9239,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>194.9077907016501</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>168.5808481153294</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9324,10 +9324,10 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>24.09533724087328</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645587</v>
@@ -9339,10 +9339,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>351.0170646165068</v>
+        <v>350.1211415871708</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9418,10 +9418,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>181.2847020220397</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>293.6524782903994</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697543</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>50.22450660589521</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>194.9077907016501</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,7 +9558,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -9567,7 +9567,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645587</v>
+        <v>40.79497132718166</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
@@ -9576,10 +9576,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
-        <v>185.0328368003638</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>194.9077907016504</v>
+        <v>50.22450660589539</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9798,7 +9798,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>111.5495646799535</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
         <v>422.4342240080415</v>
@@ -9810,13 +9810,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512944</v>
+        <v>88.03241295299767</v>
       </c>
       <c r="P25" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9877,7 +9877,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>806.7396244223818</v>
+        <v>806.739624422381</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>50.22450660589539</v>
+        <v>50.22450660589561</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -10035,7 +10035,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>111.5495646799535</v>
+        <v>111.5495646799536</v>
       </c>
       <c r="L28" t="n">
         <v>422.4342240080415</v>
@@ -10111,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>800.6381929832078</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10126,16 +10126,16 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>950.81470325071</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>175.6797153195412</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>50.22450660589573</v>
       </c>
       <c r="K30" t="n">
-        <v>194.9077907016502</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10272,7 +10272,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>111.5495646799535</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
         <v>422.4342240080415</v>
@@ -10287,7 +10287,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>351.0170646165068</v>
+        <v>185.0328368003634</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>515.9805274531054</v>
+        <v>968.5298227567594</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>934.3227458872666</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>903.0965638571083</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.9077907016506</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>194.9077907016504</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -10509,7 +10509,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>111.5495646799535</v>
+        <v>111.5495646799536</v>
       </c>
       <c r="L34" t="n">
         <v>422.4342240080415</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10600,13 +10600,13 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>181.2847020220397</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>293.6524782903994</v>
       </c>
       <c r="R35" t="n">
         <v>170.8626916697543</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>194.9077907016501</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>50.22450660589539</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,7 +10743,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -10758,13 +10758,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512944</v>
+        <v>0.5781855139171057</v>
       </c>
       <c r="P37" t="n">
-        <v>185.0328368003638</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10831,22 +10831,22 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>392.7040091360816</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>470.5175258367685</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>262.786151901023</v>
+        <v>511.4623602714644</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>50.22450660589547</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>194.9077907016501</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,16 +10980,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>111.549564679954</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645587</v>
+        <v>40.7949713271812</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
@@ -11001,7 +11001,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>50.2245066058955</v>
       </c>
       <c r="K42" t="n">
-        <v>194.9077907016501</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>245.4881297206322</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>86.37683579506029</v>
       </c>
       <c r="M43" t="n">
-        <v>404.9935091592613</v>
+        <v>404.9935091592615</v>
       </c>
       <c r="N43" t="n">
-        <v>407.766440507281</v>
+        <v>407.7664405072811</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>416.4572131468067</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>194.9077907016501</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>50.22450660589539</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11460,22 +11460,22 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>86.37683579506029</v>
       </c>
       <c r="M46" t="n">
-        <v>404.9935091592614</v>
+        <v>404.9935091592615</v>
       </c>
       <c r="N46" t="n">
         <v>407.7664405072811</v>
       </c>
       <c r="O46" t="n">
-        <v>332.9423571597129</v>
+        <v>416.4572131468067</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -23272,7 +23272,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>282.704038740317</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>45.02171802764671</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>210.6063619346637</v>
+        <v>120.6368582608881</v>
       </c>
       <c r="U11" t="n">
         <v>256.4973976610231</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -23418,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23469,16 +23469,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>147.1914830660637</v>
       </c>
       <c r="U13" t="n">
-        <v>275.608091256284</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>101.3339403727453</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23494,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>381.6354872653835</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>70.98025664092813</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>395.7253281238418</v>
       </c>
       <c r="H14" t="n">
         <v>269.2534844783823</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>45.02171802764671</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>210.6063619346637</v>
       </c>
       <c r="U14" t="n">
-        <v>256.4973976610231</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23703,25 +23703,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>42.04910838859644</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.608091256284</v>
       </c>
       <c r="V16" t="n">
-        <v>162.7891869979994</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23746,10 +23746,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>395.7253281238418</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>269.2534844783823</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>45.02171802764671</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>210.6063619346637</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>256.4973976610231</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>277.8804542713225</v>
+        <v>227.520502196921</v>
       </c>
     </row>
     <row r="18">
@@ -23971,22 +23971,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>395.7253281238418</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>233.7454840997632</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>45.02171802764671</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>210.6063619346637</v>
       </c>
       <c r="U20" t="n">
-        <v>256.4973976610231</v>
+        <v>57.04047633816316</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24034,7 +24034,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>77.02532189103886</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>122.047039918684</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>45.02171802764671</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>45.02171802764671</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>77.02532189103812</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>122.047039918686</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24970,7 +24970,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>122.0470399186844</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24982,7 +24982,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>122.047039918686</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25153,19 +25153,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>396.6013292644679</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25213,16 +25213,16 @@
         <v>256.4973976610231</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>64.39646414372754</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -25402,7 +25402,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>49.08235519256226</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>395.7253281238418</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>45.02171802764671</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>210.6063619346637</v>
@@ -25450,7 +25450,7 @@
         <v>256.4973976610231</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>48.89159132237847</v>
       </c>
       <c r="W38" t="n">
         <v>400.806900043077</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25639,13 +25639,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>86.54372697400578</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>395.7253281238418</v>
       </c>
       <c r="H41" t="n">
-        <v>269.2534844783823</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25687,16 +25687,16 @@
         <v>256.4973976610231</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>313.6714863545067</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.1914050334985</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>131.8886968144235</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>65.400528027585</v>
@@ -25836,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>144.6838101511933</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>48.72938204737321</v>
+        <v>240.241925777892</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>112.4476937519044</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>127.4570281452553</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25876,10 +25876,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>395.7253281238418</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>269.2534844783823</v>
@@ -25921,16 +25921,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>70.36029077017153</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.1914050334985</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>131.8886968144235</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>65.400528027585</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,25 +26073,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>144.6838101511933</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>275.608091256284</v>
+        <v>48.72938204737278</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>57.17327398220695</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>285886.0485631147</v>
+        <v>285886.0485631148</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>599822.9182740655</v>
+        <v>599822.9182740652</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>405888.312918789</v>
+        <v>405888.3129187889</v>
       </c>
     </row>
     <row r="14">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>428917.8559123269</v>
+        <v>428917.8559123266</v>
       </c>
       <c r="C2" t="n">
-        <v>428917.8559123267</v>
+        <v>428917.8559123268</v>
       </c>
       <c r="D2" t="n">
-        <v>428917.8559123267</v>
+        <v>428917.8559123268</v>
       </c>
       <c r="E2" t="n">
-        <v>229004.3177775087</v>
+        <v>229004.3177775088</v>
       </c>
       <c r="F2" t="n">
-        <v>229004.3177775087</v>
+        <v>229004.3177775088</v>
       </c>
       <c r="G2" t="n">
         <v>302450.3740309458</v>
@@ -26337,16 +26337,16 @@
         <v>428917.8559123268</v>
       </c>
       <c r="J2" t="n">
-        <v>421145.9004103051</v>
+        <v>421145.9004103048</v>
       </c>
       <c r="K2" t="n">
-        <v>421145.9004103049</v>
+        <v>421145.9004103047</v>
       </c>
       <c r="L2" t="n">
-        <v>421145.9004103049</v>
+        <v>421145.9004103047</v>
       </c>
       <c r="M2" t="n">
-        <v>302450.3740309458</v>
+        <v>302450.3740309457</v>
       </c>
       <c r="N2" t="n">
         <v>302450.3740309458</v>
@@ -26355,7 +26355,7 @@
         <v>229004.3177775087</v>
       </c>
       <c r="P2" t="n">
-        <v>229004.3177775086</v>
+        <v>229004.3177775088</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13845.60776629648</v>
+        <v>13845.60776629651</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>474856.5686656589</v>
+        <v>474856.568665659</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>62586.79973609104</v>
+        <v>62586.79973609095</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>136084.0388480078</v>
       </c>
       <c r="J3" t="n">
-        <v>2581.396633742152</v>
+        <v>2581.396633742053</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>301049.4928748384</v>
+        <v>301049.4928748383</v>
       </c>
       <c r="C4" t="n">
         <v>301049.4928748383</v>
       </c>
       <c r="D4" t="n">
-        <v>301049.4928748384</v>
+        <v>301049.4928748383</v>
       </c>
       <c r="E4" t="n">
+        <v>14369.31158626153</v>
+      </c>
+      <c r="F4" t="n">
         <v>14369.31158626154</v>
-      </c>
-      <c r="F4" t="n">
-        <v>14369.31158626152</v>
       </c>
       <c r="G4" t="n">
         <v>47294.89159478508</v>
       </c>
       <c r="H4" t="n">
-        <v>47294.89159478509</v>
+        <v>47294.89159478508</v>
       </c>
       <c r="I4" t="n">
         <v>103989.7695170703</v>
@@ -26450,16 +26450,16 @@
         <v>100505.6322364858</v>
       </c>
       <c r="M4" t="n">
+        <v>47294.89159478508</v>
+      </c>
+      <c r="N4" t="n">
         <v>47294.89159478509</v>
-      </c>
-      <c r="N4" t="n">
-        <v>47294.89159478508</v>
       </c>
       <c r="O4" t="n">
         <v>14369.31158626153</v>
       </c>
       <c r="P4" t="n">
-        <v>14369.31158626152</v>
+        <v>14369.31158626153</v>
       </c>
     </row>
     <row r="5">
@@ -26478,34 +26478,34 @@
         <v>36139.55218528966</v>
       </c>
       <c r="E5" t="n">
-        <v>40707.7866857078</v>
+        <v>40707.78668570781</v>
       </c>
       <c r="F5" t="n">
-        <v>40707.7866857078</v>
+        <v>40707.78668570781</v>
       </c>
       <c r="G5" t="n">
-        <v>54591.35354983511</v>
+        <v>54591.3535498351</v>
       </c>
       <c r="H5" t="n">
-        <v>54591.35354983511</v>
+        <v>54591.3535498351</v>
       </c>
       <c r="I5" t="n">
         <v>85705.51738781283</v>
       </c>
       <c r="J5" t="n">
-        <v>83793.42193660275</v>
+        <v>83793.42193660274</v>
       </c>
       <c r="K5" t="n">
-        <v>83793.42193660275</v>
+        <v>83793.42193660274</v>
       </c>
       <c r="L5" t="n">
-        <v>83793.42193660275</v>
+        <v>83793.42193660274</v>
       </c>
       <c r="M5" t="n">
-        <v>54591.35354983511</v>
+        <v>54591.3535498351</v>
       </c>
       <c r="N5" t="n">
-        <v>54591.35354983511</v>
+        <v>54591.3535498351</v>
       </c>
       <c r="O5" t="n">
         <v>40707.7866857078</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>77883.20308590239</v>
+        <v>77883.20308590216</v>
       </c>
       <c r="C6" t="n">
-        <v>91728.8108521987</v>
+        <v>91728.81085219888</v>
       </c>
       <c r="D6" t="n">
-        <v>91728.8108521987</v>
+        <v>91728.81085219882</v>
       </c>
       <c r="E6" t="n">
-        <v>-300929.3491601196</v>
+        <v>-301554.0789667909</v>
       </c>
       <c r="F6" t="n">
-        <v>173927.2195055394</v>
+        <v>173302.4896988682</v>
       </c>
       <c r="G6" t="n">
-        <v>137977.3291502345</v>
+        <v>137582.1182693553</v>
       </c>
       <c r="H6" t="n">
-        <v>200564.1288863258</v>
+        <v>200168.9180054464</v>
       </c>
       <c r="I6" t="n">
-        <v>103138.5301594359</v>
+        <v>103138.5301594358</v>
       </c>
       <c r="J6" t="n">
-        <v>234265.4496034743</v>
+        <v>234241.1622425304</v>
       </c>
       <c r="K6" t="n">
-        <v>236846.8462372163</v>
+        <v>236822.5588762723</v>
       </c>
       <c r="L6" t="n">
-        <v>236846.8462372163</v>
+        <v>236822.5588762723</v>
       </c>
       <c r="M6" t="n">
-        <v>200564.1288863256</v>
+        <v>200168.9180054462</v>
       </c>
       <c r="N6" t="n">
-        <v>200564.1288863256</v>
+        <v>200168.9180054463</v>
       </c>
       <c r="O6" t="n">
-        <v>173927.2195055393</v>
+        <v>173302.4896988681</v>
       </c>
       <c r="P6" t="n">
-        <v>173927.2195055393</v>
+        <v>173302.4896988682</v>
       </c>
     </row>
   </sheetData>
@@ -26798,16 +26798,16 @@
         <v>41.31500304752735</v>
       </c>
       <c r="E4" t="n">
-        <v>521.6121804614689</v>
+        <v>521.6121804614691</v>
       </c>
       <c r="F4" t="n">
-        <v>521.6121804614688</v>
+        <v>521.6121804614691</v>
       </c>
       <c r="G4" t="n">
-        <v>749.9603196740891</v>
+        <v>749.960319674089</v>
       </c>
       <c r="H4" t="n">
-        <v>749.9603196740891</v>
+        <v>749.960319674089</v>
       </c>
       <c r="I4" t="n">
         <v>1261.706435430302</v>
@@ -26822,16 +26822,16 @@
         <v>1230.257497088031</v>
       </c>
       <c r="M4" t="n">
-        <v>749.9603196740891</v>
+        <v>749.9603196740889</v>
       </c>
       <c r="N4" t="n">
-        <v>749.9603196740891</v>
+        <v>749.9603196740889</v>
       </c>
       <c r="O4" t="n">
-        <v>521.6121804614688</v>
+        <v>521.6121804614689</v>
       </c>
       <c r="P4" t="n">
-        <v>521.6121804614688</v>
+        <v>521.6121804614689</v>
       </c>
     </row>
   </sheetData>
@@ -27020,22 +27020,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>480.2971774139416</v>
+        <v>480.2971774139417</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>228.3481392126203</v>
+        <v>228.34813921262</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>511.7461157562125</v>
+        <v>511.7461157562126</v>
       </c>
       <c r="J4" t="n">
-        <v>9.866064705256576</v>
+        <v>9.8660647052562</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>480.2971774139416</v>
+        <v>480.2971774139417</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>228.3481392126203</v>
+        <v>228.34813921262</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27463,16 +27463,16 @@
         <v>105.3918965517241</v>
       </c>
       <c r="D3" t="n">
-        <v>94.13938596491228</v>
+        <v>57.7491312806502</v>
       </c>
       <c r="E3" t="n">
         <v>93.17921052631581</v>
       </c>
       <c r="F3" t="n">
-        <v>82.55</v>
+        <v>41.23499695247265</v>
       </c>
       <c r="G3" t="n">
-        <v>84.53123883647795</v>
+        <v>43.21623578895061</v>
       </c>
       <c r="H3" t="n">
         <v>0.003292614422299778</v>
@@ -27514,13 +27514,13 @@
         <v>128.8768572327044</v>
       </c>
       <c r="U3" t="n">
-        <v>133.258178482504</v>
+        <v>174.5731815300314</v>
       </c>
       <c r="V3" t="n">
-        <v>155.8113397110933</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W3" t="n">
-        <v>147.0792720398758</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X3" t="n">
         <v>153.3187614035088</v>
@@ -27542,19 +27542,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>122.9042098229652</v>
       </c>
       <c r="E4" t="n">
         <v>126.7454206642428</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>138.5497288135992</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>97.18814951900188</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -27605,7 +27605,7 @@
         <v>201.6228340723943</v>
       </c>
       <c r="Y4" t="n">
-        <v>188.7552192947707</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27709,7 +27709,7 @@
         <v>82.55</v>
       </c>
       <c r="G6" t="n">
-        <v>84.53123883647795</v>
+        <v>43.21623578895061</v>
       </c>
       <c r="H6" t="n">
         <v>0.003292614422299778</v>
@@ -27745,16 +27745,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>21.5058801285734</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T6" t="n">
         <v>128.8768572327044</v>
       </c>
       <c r="U6" t="n">
-        <v>133.258178482504</v>
+        <v>138.1829268457693</v>
       </c>
       <c r="V6" t="n">
-        <v>160.7360880743585</v>
+        <v>155.8113397110933</v>
       </c>
       <c r="W6" t="n">
         <v>183.4695267241379</v>
@@ -27779,22 +27779,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>122.9042098229652</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>126.7454206642428</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>159.7533718952811</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>123.316540963949</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>46.45834668554406</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27827,10 +27827,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>202.1056489098019</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>234.3336676918984</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -27839,7 +27839,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>201.6228340723943</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -27931,13 +27931,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>78.77585902143818</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C9" t="n">
         <v>105.3918965517241</v>
       </c>
       <c r="D9" t="n">
-        <v>52.82438291738493</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E9" t="n">
         <v>56.78895584205372</v>
@@ -27949,7 +27949,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H9" t="n">
-        <v>41.31829566194965</v>
+        <v>0.003292614422299778</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27985,13 +27985,13 @@
         <v>62.82088317610075</v>
       </c>
       <c r="T9" t="n">
-        <v>87.56185418517705</v>
+        <v>128.8768572327044</v>
       </c>
       <c r="U9" t="n">
-        <v>174.5731815300314</v>
+        <v>133.258178482504</v>
       </c>
       <c r="V9" t="n">
-        <v>197.1263427586206</v>
+        <v>155.8113397110933</v>
       </c>
       <c r="W9" t="n">
         <v>183.4695267241379</v>
@@ -28016,7 +28016,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>122.9042098229652</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
@@ -28025,7 +28025,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>127.5451075401685</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
@@ -28067,7 +28067,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>260.4620591368455</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -28079,7 +28079,7 @@
         <v>201.6228340723943</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>183.8304709315055</v>
       </c>
     </row>
     <row r="11">
@@ -31758,7 +31758,7 @@
         <v>16.98536853283354</v>
       </c>
       <c r="I11" t="n">
-        <v>63.94028271569051</v>
+        <v>63.94028271569052</v>
       </c>
       <c r="J11" t="n">
         <v>140.7652310522233</v>
@@ -31773,7 +31773,7 @@
         <v>291.2224672174694</v>
       </c>
       <c r="N11" t="n">
-        <v>295.9347512007637</v>
+        <v>295.9347512007638</v>
       </c>
       <c r="O11" t="n">
         <v>279.4427938373205</v>
@@ -31782,7 +31782,7 @@
         <v>238.4979594026247</v>
       </c>
       <c r="Q11" t="n">
-        <v>179.1020350201419</v>
+        <v>179.102035020142</v>
       </c>
       <c r="R11" t="n">
         <v>104.1823172074313</v>
@@ -31791,7 +31791,7 @@
         <v>37.79363705035465</v>
       </c>
       <c r="T11" t="n">
-        <v>7.26019292102808</v>
+        <v>7.260192921028081</v>
       </c>
       <c r="U11" t="n">
         <v>0.1326819951301533</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8873890747413504</v>
+        <v>0.8873890747413505</v>
       </c>
       <c r="H12" t="n">
-        <v>8.570310274475675</v>
+        <v>8.570310274475677</v>
       </c>
       <c r="I12" t="n">
-        <v>30.55265016105088</v>
+        <v>30.55265016105089</v>
       </c>
       <c r="J12" t="n">
-        <v>83.83880727633084</v>
+        <v>83.83880727633085</v>
       </c>
       <c r="K12" t="n">
         <v>143.2938752840013</v>
@@ -31864,7 +31864,7 @@
         <v>113.2744369792643</v>
       </c>
       <c r="R12" t="n">
-        <v>55.09596378087088</v>
+        <v>55.09596378087089</v>
       </c>
       <c r="S12" t="n">
         <v>16.48286285758604</v>
@@ -31873,7 +31873,7 @@
         <v>3.576800700382898</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05838086018035202</v>
+        <v>0.05838086018035203</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7439571909321357</v>
+        <v>0.7439571909321359</v>
       </c>
       <c r="H13" t="n">
-        <v>6.614455752105721</v>
+        <v>6.614455752105722</v>
       </c>
       <c r="I13" t="n">
         <v>22.37282170548642</v>
       </c>
       <c r="J13" t="n">
-        <v>52.59777339890199</v>
+        <v>52.59777339890201</v>
       </c>
       <c r="K13" t="n">
-        <v>86.43429909193357</v>
+        <v>86.43429909193358</v>
       </c>
       <c r="L13" t="n">
         <v>110.6061445500377</v>
@@ -31937,16 +31937,16 @@
         <v>105.1549673146623</v>
       </c>
       <c r="P13" t="n">
-        <v>89.97824061964664</v>
+        <v>89.97824061964666</v>
       </c>
       <c r="Q13" t="n">
         <v>62.29626986978094</v>
       </c>
       <c r="R13" t="n">
-        <v>33.45102060318493</v>
+        <v>33.45102060318494</v>
       </c>
       <c r="S13" t="n">
-        <v>12.96514486379003</v>
+        <v>12.96514486379004</v>
       </c>
       <c r="T13" t="n">
         <v>3.178726179437307</v>
@@ -32943,7 +32943,7 @@
         <v>16.98536853283354</v>
       </c>
       <c r="I26" t="n">
-        <v>63.94028271569052</v>
+        <v>63.94028271569051</v>
       </c>
       <c r="J26" t="n">
         <v>140.7652310522233</v>
@@ -32958,7 +32958,7 @@
         <v>291.2224672174694</v>
       </c>
       <c r="N26" t="n">
-        <v>295.9347512007638</v>
+        <v>295.9347512007637</v>
       </c>
       <c r="O26" t="n">
         <v>279.4427938373205</v>
@@ -32967,7 +32967,7 @@
         <v>238.4979594026247</v>
       </c>
       <c r="Q26" t="n">
-        <v>179.102035020142</v>
+        <v>179.1020350201419</v>
       </c>
       <c r="R26" t="n">
         <v>104.1823172074313</v>
@@ -32976,7 +32976,7 @@
         <v>37.79363705035465</v>
       </c>
       <c r="T26" t="n">
-        <v>7.260192921028081</v>
+        <v>7.26019292102808</v>
       </c>
       <c r="U26" t="n">
         <v>0.1326819951301533</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8873890747413505</v>
+        <v>0.8873890747413504</v>
       </c>
       <c r="H27" t="n">
-        <v>8.570310274475677</v>
+        <v>8.570310274475675</v>
       </c>
       <c r="I27" t="n">
-        <v>30.55265016105089</v>
+        <v>30.55265016105088</v>
       </c>
       <c r="J27" t="n">
-        <v>83.83880727633085</v>
+        <v>83.83880727633084</v>
       </c>
       <c r="K27" t="n">
         <v>143.2938752840013</v>
@@ -33049,7 +33049,7 @@
         <v>113.2744369792643</v>
       </c>
       <c r="R27" t="n">
-        <v>55.09596378087089</v>
+        <v>55.09596378087088</v>
       </c>
       <c r="S27" t="n">
         <v>16.48286285758604</v>
@@ -33058,7 +33058,7 @@
         <v>3.576800700382898</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05838086018035203</v>
+        <v>0.05838086018035202</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.7439571909321359</v>
+        <v>0.7439571909321357</v>
       </c>
       <c r="H28" t="n">
-        <v>6.614455752105722</v>
+        <v>6.614455752105721</v>
       </c>
       <c r="I28" t="n">
         <v>22.37282170548642</v>
       </c>
       <c r="J28" t="n">
-        <v>52.59777339890201</v>
+        <v>52.59777339890199</v>
       </c>
       <c r="K28" t="n">
-        <v>86.43429909193358</v>
+        <v>86.43429909193357</v>
       </c>
       <c r="L28" t="n">
         <v>110.6061445500377</v>
@@ -33122,16 +33122,16 @@
         <v>105.1549673146623</v>
       </c>
       <c r="P28" t="n">
-        <v>89.97824061964666</v>
+        <v>89.97824061964664</v>
       </c>
       <c r="Q28" t="n">
         <v>62.29626986978094</v>
       </c>
       <c r="R28" t="n">
-        <v>33.45102060318494</v>
+        <v>33.45102060318493</v>
       </c>
       <c r="S28" t="n">
-        <v>12.96514486379004</v>
+        <v>12.96514486379003</v>
       </c>
       <c r="T28" t="n">
         <v>3.178726179437307</v>
@@ -33180,7 +33180,7 @@
         <v>16.98536853283354</v>
       </c>
       <c r="I29" t="n">
-        <v>63.94028271569052</v>
+        <v>63.94028271569051</v>
       </c>
       <c r="J29" t="n">
         <v>140.7652310522233</v>
@@ -33195,7 +33195,7 @@
         <v>291.2224672174694</v>
       </c>
       <c r="N29" t="n">
-        <v>295.9347512007638</v>
+        <v>295.9347512007637</v>
       </c>
       <c r="O29" t="n">
         <v>279.4427938373205</v>
@@ -33204,7 +33204,7 @@
         <v>238.4979594026247</v>
       </c>
       <c r="Q29" t="n">
-        <v>179.102035020142</v>
+        <v>179.1020350201419</v>
       </c>
       <c r="R29" t="n">
         <v>104.1823172074313</v>
@@ -33213,7 +33213,7 @@
         <v>37.79363705035465</v>
       </c>
       <c r="T29" t="n">
-        <v>7.260192921028081</v>
+        <v>7.26019292102808</v>
       </c>
       <c r="U29" t="n">
         <v>0.1326819951301533</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8873890747413505</v>
+        <v>0.8873890747413504</v>
       </c>
       <c r="H30" t="n">
-        <v>8.570310274475677</v>
+        <v>8.570310274475675</v>
       </c>
       <c r="I30" t="n">
-        <v>30.55265016105089</v>
+        <v>30.55265016105088</v>
       </c>
       <c r="J30" t="n">
-        <v>83.83880727633085</v>
+        <v>83.83880727633084</v>
       </c>
       <c r="K30" t="n">
         <v>143.2938752840013</v>
@@ -33286,7 +33286,7 @@
         <v>113.2744369792643</v>
       </c>
       <c r="R30" t="n">
-        <v>55.09596378087089</v>
+        <v>55.09596378087088</v>
       </c>
       <c r="S30" t="n">
         <v>16.48286285758604</v>
@@ -33295,7 +33295,7 @@
         <v>3.576800700382898</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05838086018035203</v>
+        <v>0.05838086018035202</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.7439571909321359</v>
+        <v>0.7439571909321357</v>
       </c>
       <c r="H31" t="n">
-        <v>6.614455752105722</v>
+        <v>6.614455752105721</v>
       </c>
       <c r="I31" t="n">
         <v>22.37282170548642</v>
       </c>
       <c r="J31" t="n">
-        <v>52.59777339890201</v>
+        <v>52.59777339890199</v>
       </c>
       <c r="K31" t="n">
-        <v>86.43429909193358</v>
+        <v>86.43429909193357</v>
       </c>
       <c r="L31" t="n">
         <v>110.6061445500377</v>
@@ -33359,16 +33359,16 @@
         <v>105.1549673146623</v>
       </c>
       <c r="P31" t="n">
-        <v>89.97824061964666</v>
+        <v>89.97824061964664</v>
       </c>
       <c r="Q31" t="n">
         <v>62.29626986978094</v>
       </c>
       <c r="R31" t="n">
-        <v>33.45102060318494</v>
+        <v>33.45102060318493</v>
       </c>
       <c r="S31" t="n">
-        <v>12.96514486379004</v>
+        <v>12.96514486379003</v>
       </c>
       <c r="T31" t="n">
         <v>3.178726179437307</v>
@@ -33417,7 +33417,7 @@
         <v>16.98536853283354</v>
       </c>
       <c r="I32" t="n">
-        <v>63.94028271569052</v>
+        <v>63.94028271569051</v>
       </c>
       <c r="J32" t="n">
         <v>140.7652310522233</v>
@@ -33432,7 +33432,7 @@
         <v>291.2224672174694</v>
       </c>
       <c r="N32" t="n">
-        <v>295.9347512007638</v>
+        <v>295.9347512007637</v>
       </c>
       <c r="O32" t="n">
         <v>279.4427938373205</v>
@@ -33441,7 +33441,7 @@
         <v>238.4979594026247</v>
       </c>
       <c r="Q32" t="n">
-        <v>179.102035020142</v>
+        <v>179.1020350201419</v>
       </c>
       <c r="R32" t="n">
         <v>104.1823172074313</v>
@@ -33450,7 +33450,7 @@
         <v>37.79363705035465</v>
       </c>
       <c r="T32" t="n">
-        <v>7.260192921028081</v>
+        <v>7.26019292102808</v>
       </c>
       <c r="U32" t="n">
         <v>0.1326819951301533</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8873890747413505</v>
+        <v>0.8873890747413504</v>
       </c>
       <c r="H33" t="n">
-        <v>8.570310274475677</v>
+        <v>8.570310274475675</v>
       </c>
       <c r="I33" t="n">
-        <v>30.55265016105089</v>
+        <v>30.55265016105088</v>
       </c>
       <c r="J33" t="n">
-        <v>83.83880727633085</v>
+        <v>83.83880727633084</v>
       </c>
       <c r="K33" t="n">
         <v>143.2938752840013</v>
@@ -33523,7 +33523,7 @@
         <v>113.2744369792643</v>
       </c>
       <c r="R33" t="n">
-        <v>55.09596378087089</v>
+        <v>55.09596378087088</v>
       </c>
       <c r="S33" t="n">
         <v>16.48286285758604</v>
@@ -33532,7 +33532,7 @@
         <v>3.576800700382898</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05838086018035203</v>
+        <v>0.05838086018035202</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.7439571909321359</v>
+        <v>0.7439571909321357</v>
       </c>
       <c r="H34" t="n">
-        <v>6.614455752105722</v>
+        <v>6.614455752105721</v>
       </c>
       <c r="I34" t="n">
         <v>22.37282170548642</v>
       </c>
       <c r="J34" t="n">
-        <v>52.59777339890201</v>
+        <v>52.59777339890199</v>
       </c>
       <c r="K34" t="n">
-        <v>86.43429909193358</v>
+        <v>86.43429909193357</v>
       </c>
       <c r="L34" t="n">
         <v>110.6061445500377</v>
@@ -33596,16 +33596,16 @@
         <v>105.1549673146623</v>
       </c>
       <c r="P34" t="n">
-        <v>89.97824061964666</v>
+        <v>89.97824061964664</v>
       </c>
       <c r="Q34" t="n">
         <v>62.29626986978094</v>
       </c>
       <c r="R34" t="n">
-        <v>33.45102060318494</v>
+        <v>33.45102060318493</v>
       </c>
       <c r="S34" t="n">
-        <v>12.96514486379004</v>
+        <v>12.96514486379003</v>
       </c>
       <c r="T34" t="n">
         <v>3.178726179437307</v>
@@ -33654,7 +33654,7 @@
         <v>16.98536853283354</v>
       </c>
       <c r="I35" t="n">
-        <v>63.94028271569052</v>
+        <v>63.94028271569051</v>
       </c>
       <c r="J35" t="n">
         <v>140.7652310522233</v>
@@ -33669,7 +33669,7 @@
         <v>291.2224672174694</v>
       </c>
       <c r="N35" t="n">
-        <v>295.9347512007638</v>
+        <v>295.9347512007637</v>
       </c>
       <c r="O35" t="n">
         <v>279.4427938373205</v>
@@ -33678,7 +33678,7 @@
         <v>238.4979594026247</v>
       </c>
       <c r="Q35" t="n">
-        <v>179.102035020142</v>
+        <v>179.1020350201419</v>
       </c>
       <c r="R35" t="n">
         <v>104.1823172074313</v>
@@ -33687,7 +33687,7 @@
         <v>37.79363705035465</v>
       </c>
       <c r="T35" t="n">
-        <v>7.260192921028081</v>
+        <v>7.26019292102808</v>
       </c>
       <c r="U35" t="n">
         <v>0.1326819951301533</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8873890747413505</v>
+        <v>0.8873890747413504</v>
       </c>
       <c r="H36" t="n">
-        <v>8.570310274475677</v>
+        <v>8.570310274475675</v>
       </c>
       <c r="I36" t="n">
-        <v>30.55265016105089</v>
+        <v>30.55265016105088</v>
       </c>
       <c r="J36" t="n">
-        <v>83.83880727633085</v>
+        <v>83.83880727633084</v>
       </c>
       <c r="K36" t="n">
         <v>143.2938752840013</v>
@@ -33760,7 +33760,7 @@
         <v>113.2744369792643</v>
       </c>
       <c r="R36" t="n">
-        <v>55.09596378087089</v>
+        <v>55.09596378087088</v>
       </c>
       <c r="S36" t="n">
         <v>16.48286285758604</v>
@@ -33769,7 +33769,7 @@
         <v>3.576800700382898</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05838086018035203</v>
+        <v>0.05838086018035202</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7439571909321359</v>
+        <v>0.7439571909321357</v>
       </c>
       <c r="H37" t="n">
-        <v>6.614455752105722</v>
+        <v>6.614455752105721</v>
       </c>
       <c r="I37" t="n">
         <v>22.37282170548642</v>
       </c>
       <c r="J37" t="n">
-        <v>52.59777339890201</v>
+        <v>52.59777339890199</v>
       </c>
       <c r="K37" t="n">
-        <v>86.43429909193358</v>
+        <v>86.43429909193357</v>
       </c>
       <c r="L37" t="n">
         <v>110.6061445500377</v>
@@ -33833,16 +33833,16 @@
         <v>105.1549673146623</v>
       </c>
       <c r="P37" t="n">
-        <v>89.97824061964666</v>
+        <v>89.97824061964664</v>
       </c>
       <c r="Q37" t="n">
         <v>62.29626986978094</v>
       </c>
       <c r="R37" t="n">
-        <v>33.45102060318494</v>
+        <v>33.45102060318493</v>
       </c>
       <c r="S37" t="n">
-        <v>12.96514486379004</v>
+        <v>12.96514486379003</v>
       </c>
       <c r="T37" t="n">
         <v>3.178726179437307</v>
@@ -33891,7 +33891,7 @@
         <v>16.98536853283354</v>
       </c>
       <c r="I38" t="n">
-        <v>63.94028271569052</v>
+        <v>63.94028271569051</v>
       </c>
       <c r="J38" t="n">
         <v>140.7652310522233</v>
@@ -33906,7 +33906,7 @@
         <v>291.2224672174694</v>
       </c>
       <c r="N38" t="n">
-        <v>295.9347512007638</v>
+        <v>295.9347512007637</v>
       </c>
       <c r="O38" t="n">
         <v>279.4427938373205</v>
@@ -33915,7 +33915,7 @@
         <v>238.4979594026247</v>
       </c>
       <c r="Q38" t="n">
-        <v>179.102035020142</v>
+        <v>179.1020350201419</v>
       </c>
       <c r="R38" t="n">
         <v>104.1823172074313</v>
@@ -33924,7 +33924,7 @@
         <v>37.79363705035465</v>
       </c>
       <c r="T38" t="n">
-        <v>7.260192921028081</v>
+        <v>7.26019292102808</v>
       </c>
       <c r="U38" t="n">
         <v>0.1326819951301533</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8873890747413505</v>
+        <v>0.8873890747413504</v>
       </c>
       <c r="H39" t="n">
-        <v>8.570310274475677</v>
+        <v>8.570310274475675</v>
       </c>
       <c r="I39" t="n">
-        <v>30.55265016105089</v>
+        <v>30.55265016105088</v>
       </c>
       <c r="J39" t="n">
-        <v>83.83880727633085</v>
+        <v>83.83880727633084</v>
       </c>
       <c r="K39" t="n">
         <v>143.2938752840013</v>
@@ -33997,7 +33997,7 @@
         <v>113.2744369792643</v>
       </c>
       <c r="R39" t="n">
-        <v>55.09596378087089</v>
+        <v>55.09596378087088</v>
       </c>
       <c r="S39" t="n">
         <v>16.48286285758604</v>
@@ -34006,7 +34006,7 @@
         <v>3.576800700382898</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05838086018035203</v>
+        <v>0.05838086018035202</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7439571909321359</v>
+        <v>0.7439571909321357</v>
       </c>
       <c r="H40" t="n">
-        <v>6.614455752105722</v>
+        <v>6.614455752105721</v>
       </c>
       <c r="I40" t="n">
         <v>22.37282170548642</v>
       </c>
       <c r="J40" t="n">
-        <v>52.59777339890201</v>
+        <v>52.59777339890199</v>
       </c>
       <c r="K40" t="n">
-        <v>86.43429909193358</v>
+        <v>86.43429909193357</v>
       </c>
       <c r="L40" t="n">
         <v>110.6061445500377</v>
@@ -34070,16 +34070,16 @@
         <v>105.1549673146623</v>
       </c>
       <c r="P40" t="n">
-        <v>89.97824061964666</v>
+        <v>89.97824061964664</v>
       </c>
       <c r="Q40" t="n">
         <v>62.29626986978094</v>
       </c>
       <c r="R40" t="n">
-        <v>33.45102060318494</v>
+        <v>33.45102060318493</v>
       </c>
       <c r="S40" t="n">
-        <v>12.96514486379004</v>
+        <v>12.96514486379003</v>
       </c>
       <c r="T40" t="n">
         <v>3.178726179437307</v>
@@ -34128,7 +34128,7 @@
         <v>16.98536853283354</v>
       </c>
       <c r="I41" t="n">
-        <v>63.94028271569052</v>
+        <v>63.94028271569051</v>
       </c>
       <c r="J41" t="n">
         <v>140.7652310522233</v>
@@ -34143,7 +34143,7 @@
         <v>291.2224672174694</v>
       </c>
       <c r="N41" t="n">
-        <v>295.9347512007638</v>
+        <v>295.9347512007637</v>
       </c>
       <c r="O41" t="n">
         <v>279.4427938373205</v>
@@ -34152,7 +34152,7 @@
         <v>238.4979594026247</v>
       </c>
       <c r="Q41" t="n">
-        <v>179.102035020142</v>
+        <v>179.1020350201419</v>
       </c>
       <c r="R41" t="n">
         <v>104.1823172074313</v>
@@ -34161,7 +34161,7 @@
         <v>37.79363705035465</v>
       </c>
       <c r="T41" t="n">
-        <v>7.260192921028081</v>
+        <v>7.26019292102808</v>
       </c>
       <c r="U41" t="n">
         <v>0.1326819951301533</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8873890747413505</v>
+        <v>0.8873890747413504</v>
       </c>
       <c r="H42" t="n">
-        <v>8.570310274475677</v>
+        <v>8.570310274475675</v>
       </c>
       <c r="I42" t="n">
-        <v>30.55265016105089</v>
+        <v>30.55265016105088</v>
       </c>
       <c r="J42" t="n">
-        <v>83.83880727633085</v>
+        <v>83.83880727633084</v>
       </c>
       <c r="K42" t="n">
         <v>143.2938752840013</v>
@@ -34234,7 +34234,7 @@
         <v>113.2744369792643</v>
       </c>
       <c r="R42" t="n">
-        <v>55.09596378087089</v>
+        <v>55.09596378087088</v>
       </c>
       <c r="S42" t="n">
         <v>16.48286285758604</v>
@@ -34243,7 +34243,7 @@
         <v>3.576800700382898</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05838086018035203</v>
+        <v>0.05838086018035202</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.7439571909321359</v>
+        <v>0.7439571909321357</v>
       </c>
       <c r="H43" t="n">
-        <v>6.614455752105722</v>
+        <v>6.614455752105721</v>
       </c>
       <c r="I43" t="n">
         <v>22.37282170548642</v>
       </c>
       <c r="J43" t="n">
-        <v>52.59777339890201</v>
+        <v>52.59777339890199</v>
       </c>
       <c r="K43" t="n">
-        <v>86.43429909193358</v>
+        <v>86.43429909193357</v>
       </c>
       <c r="L43" t="n">
         <v>110.6061445500377</v>
@@ -34307,16 +34307,16 @@
         <v>105.1549673146623</v>
       </c>
       <c r="P43" t="n">
-        <v>89.97824061964666</v>
+        <v>89.97824061964664</v>
       </c>
       <c r="Q43" t="n">
         <v>62.29626986978094</v>
       </c>
       <c r="R43" t="n">
-        <v>33.45102060318494</v>
+        <v>33.45102060318493</v>
       </c>
       <c r="S43" t="n">
-        <v>12.96514486379004</v>
+        <v>12.96514486379003</v>
       </c>
       <c r="T43" t="n">
         <v>3.178726179437307</v>
@@ -34365,7 +34365,7 @@
         <v>16.98536853283354</v>
       </c>
       <c r="I44" t="n">
-        <v>63.94028271569052</v>
+        <v>63.94028271569051</v>
       </c>
       <c r="J44" t="n">
         <v>140.7652310522233</v>
@@ -34380,7 +34380,7 @@
         <v>291.2224672174694</v>
       </c>
       <c r="N44" t="n">
-        <v>295.9347512007638</v>
+        <v>295.9347512007637</v>
       </c>
       <c r="O44" t="n">
         <v>279.4427938373205</v>
@@ -34389,7 +34389,7 @@
         <v>238.4979594026247</v>
       </c>
       <c r="Q44" t="n">
-        <v>179.102035020142</v>
+        <v>179.1020350201419</v>
       </c>
       <c r="R44" t="n">
         <v>104.1823172074313</v>
@@ -34398,7 +34398,7 @@
         <v>37.79363705035465</v>
       </c>
       <c r="T44" t="n">
-        <v>7.260192921028081</v>
+        <v>7.26019292102808</v>
       </c>
       <c r="U44" t="n">
         <v>0.1326819951301533</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8873890747413505</v>
+        <v>0.8873890747413504</v>
       </c>
       <c r="H45" t="n">
-        <v>8.570310274475677</v>
+        <v>8.570310274475675</v>
       </c>
       <c r="I45" t="n">
-        <v>30.55265016105089</v>
+        <v>30.55265016105088</v>
       </c>
       <c r="J45" t="n">
-        <v>83.83880727633085</v>
+        <v>83.83880727633084</v>
       </c>
       <c r="K45" t="n">
         <v>143.2938752840013</v>
@@ -34471,7 +34471,7 @@
         <v>113.2744369792643</v>
       </c>
       <c r="R45" t="n">
-        <v>55.09596378087089</v>
+        <v>55.09596378087088</v>
       </c>
       <c r="S45" t="n">
         <v>16.48286285758604</v>
@@ -34480,7 +34480,7 @@
         <v>3.576800700382898</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05838086018035203</v>
+        <v>0.05838086018035202</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7439571909321359</v>
+        <v>0.7439571909321357</v>
       </c>
       <c r="H46" t="n">
-        <v>6.614455752105722</v>
+        <v>6.614455752105721</v>
       </c>
       <c r="I46" t="n">
         <v>22.37282170548642</v>
       </c>
       <c r="J46" t="n">
-        <v>52.59777339890201</v>
+        <v>52.59777339890199</v>
       </c>
       <c r="K46" t="n">
-        <v>86.43429909193358</v>
+        <v>86.43429909193357</v>
       </c>
       <c r="L46" t="n">
         <v>110.6061445500377</v>
@@ -34544,16 +34544,16 @@
         <v>105.1549673146623</v>
       </c>
       <c r="P46" t="n">
-        <v>89.97824061964666</v>
+        <v>89.97824061964664</v>
       </c>
       <c r="Q46" t="n">
         <v>62.29626986978094</v>
       </c>
       <c r="R46" t="n">
-        <v>33.45102060318494</v>
+        <v>33.45102060318493</v>
       </c>
       <c r="S46" t="n">
-        <v>12.96514486379004</v>
+        <v>12.96514486379003</v>
       </c>
       <c r="T46" t="n">
         <v>3.178726179437307</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="N2" t="n">
-        <v>39.64570999510202</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>41.31500304752734</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
+        <v>41.31500304752735</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>41.31500304752736</v>
       </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="P3" t="n">
-        <v>13.31876740878121</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34859,10 +34859,10 @@
         <v>41.31500304752735</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -34871,10 +34871,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>39.64570999510202</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>41.31500304752734</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="K5" t="n">
+      <c r="P5" t="n">
         <v>41.31500304752736</v>
       </c>
-      <c r="L5" t="n">
+      <c r="Q5" t="n">
+        <v>41.31500304752734</v>
+      </c>
+      <c r="R5" t="n">
         <v>39.64570999510201</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>41.31500304752734</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35023,13 +35023,13 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>13.31876740878122</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>13.31876740878122</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>41.31500304752735</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="M7" t="n">
-        <v>41.31500304752735</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="N7" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="P7" t="n">
-        <v>39.64570999510201</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,22 +35172,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="M8" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>39.64570999510201</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35260,22 +35260,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="N9" t="n">
-        <v>41.31500304752736</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
         <v>13.31876740878121</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>41.31500304752734</v>
-      </c>
-      <c r="R9" t="n">
-        <v>41.31500304752734</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>39.64570999510202</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="P10" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>41.31500304752734</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,7 +35406,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>63.52766123655911</v>
+        <v>63.52766123655913</v>
       </c>
       <c r="J11" t="n">
         <v>140.7652310522233</v>
@@ -35418,7 +35418,7 @@
         <v>261.7276743312711</v>
       </c>
       <c r="M11" t="n">
-        <v>291.2224672174694</v>
+        <v>291.2224672174696</v>
       </c>
       <c r="N11" t="n">
         <v>295.9347512007637</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>30.55265016105088</v>
+        <v>56.8795927473717</v>
       </c>
       <c r="J12" t="n">
-        <v>83.83880727633084</v>
+        <v>134.0633138822263</v>
       </c>
       <c r="K12" t="n">
         <v>143.2938752840013</v>
@@ -35497,13 +35497,13 @@
         <v>192.6762988818884</v>
       </c>
       <c r="M12" t="n">
-        <v>224.8441528412623</v>
+        <v>224.8441528412624</v>
       </c>
       <c r="N12" t="n">
-        <v>230.7951085223128</v>
+        <v>230.7951085223129</v>
       </c>
       <c r="O12" t="n">
-        <v>287.6838840057867</v>
+        <v>211.1324348135704</v>
       </c>
       <c r="P12" t="n">
         <v>169.4523927021444</v>
@@ -35567,31 +35567,31 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>52.59777339890199</v>
+        <v>52.59777339890201</v>
       </c>
       <c r="K13" t="n">
-        <v>363.9680915880301</v>
+        <v>86.43429909193358</v>
       </c>
       <c r="L13" t="n">
-        <v>211.3003811168835</v>
+        <v>521.6121804614691</v>
       </c>
       <c r="M13" t="n">
-        <v>116.6186713022074</v>
+        <v>521.6121804614691</v>
       </c>
       <c r="N13" t="n">
-        <v>113.8457399541877</v>
+        <v>521.6121804614691</v>
       </c>
       <c r="O13" t="n">
-        <v>521.6121804614689</v>
+        <v>196.9829803450982</v>
       </c>
       <c r="P13" t="n">
-        <v>440.9953052361536</v>
+        <v>89.97824061964661</v>
       </c>
       <c r="Q13" t="n">
-        <v>232.1879616519348</v>
+        <v>62.29626986978087</v>
       </c>
       <c r="R13" t="n">
-        <v>12.24737752150309</v>
+        <v>12.2473775215031</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35655,13 +35655,13 @@
         <v>261.7276743312711</v>
       </c>
       <c r="M14" t="n">
-        <v>291.2224672174694</v>
+        <v>291.2224672174701</v>
       </c>
       <c r="N14" t="n">
-        <v>295.9347512007638</v>
+        <v>295.9347512007637</v>
       </c>
       <c r="O14" t="n">
-        <v>279.4427938373203</v>
+        <v>279.4427938373206</v>
       </c>
       <c r="P14" t="n">
         <v>238.4979594026247</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>30.55265016105088</v>
+        <v>56.8795927473717</v>
       </c>
       <c r="J15" t="n">
-        <v>278.746597977981</v>
+        <v>83.83880727633084</v>
       </c>
       <c r="K15" t="n">
         <v>143.2938752840013</v>
@@ -35740,16 +35740,16 @@
         <v>230.7951085223129</v>
       </c>
       <c r="O15" t="n">
-        <v>211.1324348135704</v>
+        <v>211.1324348135703</v>
       </c>
       <c r="P15" t="n">
         <v>169.4523927021444</v>
       </c>
       <c r="Q15" t="n">
-        <v>113.2744369792642</v>
+        <v>163.4989435851599</v>
       </c>
       <c r="R15" t="n">
-        <v>55.09596378087099</v>
+        <v>173.452305290305</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35807,16 +35807,16 @@
         <v>140.0520008379827</v>
       </c>
       <c r="K16" t="n">
-        <v>90.80808468328857</v>
+        <v>363.9680915880301</v>
       </c>
       <c r="L16" t="n">
-        <v>521.6121804614688</v>
+        <v>110.6061445500377</v>
       </c>
       <c r="M16" t="n">
-        <v>521.6121804614688</v>
+        <v>521.6121804614691</v>
       </c>
       <c r="N16" t="n">
-        <v>521.6121804614688</v>
+        <v>489.5665176860052</v>
       </c>
       <c r="O16" t="n">
         <v>105.1549673146624</v>
@@ -35825,7 +35825,7 @@
         <v>89.97824061964661</v>
       </c>
       <c r="Q16" t="n">
-        <v>62.29626986978087</v>
+        <v>232.1879616519348</v>
       </c>
       <c r="R16" t="n">
         <v>12.2473775215031</v>
@@ -35904,7 +35904,7 @@
         <v>238.4979594026249</v>
       </c>
       <c r="Q17" t="n">
-        <v>472.7545133105418</v>
+        <v>472.7545133105414</v>
       </c>
       <c r="R17" t="n">
         <v>275.0450088771859</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>30.55265016105088</v>
+        <v>56.87959274737169</v>
       </c>
       <c r="J18" t="n">
-        <v>278.7465979779809</v>
+        <v>83.83880727633084</v>
       </c>
       <c r="K18" t="n">
         <v>143.2938752840013</v>
@@ -35977,10 +35977,10 @@
         <v>230.7951085223129</v>
       </c>
       <c r="O18" t="n">
-        <v>211.1324348135704</v>
+        <v>211.1324348135703</v>
       </c>
       <c r="P18" t="n">
-        <v>169.4523927021444</v>
+        <v>338.0332408174738</v>
       </c>
       <c r="Q18" t="n">
         <v>113.2744369792642</v>
@@ -36044,10 +36044,10 @@
         <v>140.0520008379827</v>
       </c>
       <c r="K19" t="n">
-        <v>110.5296363328069</v>
+        <v>363.9680915880301</v>
       </c>
       <c r="L19" t="n">
-        <v>533.0403685580792</v>
+        <v>110.6061445500377</v>
       </c>
       <c r="M19" t="n">
         <v>580.7437896667661</v>
@@ -36056,13 +36056,13 @@
         <v>560.5718037497884</v>
       </c>
       <c r="O19" t="n">
-        <v>529.0632998659567</v>
+        <v>529.0632998659569</v>
       </c>
       <c r="P19" t="n">
-        <v>440.9953052361534</v>
+        <v>440.0993822068176</v>
       </c>
       <c r="Q19" t="n">
-        <v>62.2962698697811</v>
+        <v>232.1879616519345</v>
       </c>
       <c r="R19" t="n">
         <v>12.2473775215031</v>
@@ -36120,7 +36120,7 @@
         <v>63.52766123655913</v>
       </c>
       <c r="J20" t="n">
-        <v>140.7652310522233</v>
+        <v>580.416430499615</v>
       </c>
       <c r="K20" t="n">
         <v>210.9705917254657</v>
@@ -36129,7 +36129,7 @@
         <v>261.7276743312711</v>
       </c>
       <c r="M20" t="n">
-        <v>291.2224672174694</v>
+        <v>291.2224672174693</v>
       </c>
       <c r="N20" t="n">
         <v>295.9347512007639</v>
@@ -36138,10 +36138,10 @@
         <v>279.4427938373206</v>
       </c>
       <c r="P20" t="n">
-        <v>419.7826614246644</v>
+        <v>238.4979594026249</v>
       </c>
       <c r="Q20" t="n">
-        <v>731.1210107358941</v>
+        <v>472.7545133105414</v>
       </c>
       <c r="R20" t="n">
         <v>275.0450088771859</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>30.55265016105088</v>
+        <v>56.87959274737169</v>
       </c>
       <c r="J21" t="n">
-        <v>83.83880727633084</v>
+        <v>134.0633138822261</v>
       </c>
       <c r="K21" t="n">
         <v>143.2938752840013</v>
@@ -36220,10 +36220,10 @@
         <v>169.4523927021444</v>
       </c>
       <c r="Q21" t="n">
-        <v>308.1822276809144</v>
+        <v>113.2744369792642</v>
       </c>
       <c r="R21" t="n">
-        <v>55.09596378087099</v>
+        <v>173.452305290305</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>52.59777339890201</v>
+        <v>140.0520008379827</v>
       </c>
       <c r="K22" t="n">
         <v>363.9680915880301</v>
       </c>
       <c r="L22" t="n">
-        <v>533.0403685580792</v>
+        <v>533.0403685580791</v>
       </c>
       <c r="M22" t="n">
-        <v>580.743789666766</v>
+        <v>157.4136426293892</v>
       </c>
       <c r="N22" t="n">
-        <v>560.5718037497886</v>
+        <v>560.5718037497884</v>
       </c>
       <c r="O22" t="n">
         <v>529.0632998659567</v>
       </c>
       <c r="P22" t="n">
-        <v>275.0110774200107</v>
+        <v>440.9953052361534</v>
       </c>
       <c r="Q22" t="n">
-        <v>62.2962698697811</v>
+        <v>232.1879616519345</v>
       </c>
       <c r="R22" t="n">
         <v>12.2473775215031</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>30.55265016105089</v>
+        <v>56.87959274737169</v>
       </c>
       <c r="J24" t="n">
         <v>83.83880727633087</v>
@@ -36451,16 +36451,16 @@
         <v>230.7951085223129</v>
       </c>
       <c r="O24" t="n">
-        <v>211.1324348135703</v>
+        <v>211.1324348135704</v>
       </c>
       <c r="P24" t="n">
         <v>169.4523927021444</v>
       </c>
       <c r="Q24" t="n">
-        <v>308.1822276809146</v>
+        <v>163.4989435851596</v>
       </c>
       <c r="R24" t="n">
-        <v>55.09596378087099</v>
+        <v>173.452305290305</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36518,25 +36518,25 @@
         <v>52.59777339890202</v>
       </c>
       <c r="K25" t="n">
-        <v>197.9838637718871</v>
+        <v>363.9680915880301</v>
       </c>
       <c r="L25" t="n">
-        <v>533.0403685580792</v>
+        <v>533.0403685580791</v>
       </c>
       <c r="M25" t="n">
         <v>580.7437896667661</v>
       </c>
       <c r="N25" t="n">
-        <v>560.5718037497884</v>
+        <v>560.5718037497886</v>
       </c>
       <c r="O25" t="n">
-        <v>529.0632998659567</v>
+        <v>193.18738026766</v>
       </c>
       <c r="P25" t="n">
         <v>440.9953052361534</v>
       </c>
       <c r="Q25" t="n">
-        <v>62.2962698697811</v>
+        <v>232.1879616519345</v>
       </c>
       <c r="R25" t="n">
         <v>12.2473775215031</v>
@@ -36591,13 +36591,13 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>63.52766123655913</v>
+        <v>63.52766123655911</v>
       </c>
       <c r="J26" t="n">
-        <v>580.4164304996151</v>
+        <v>580.416430499615</v>
       </c>
       <c r="K26" t="n">
-        <v>1017.710216147848</v>
+        <v>1017.710216147847</v>
       </c>
       <c r="L26" t="n">
         <v>261.7276743312711</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>56.87959274737169</v>
+        <v>56.87959274737167</v>
       </c>
       <c r="J27" t="n">
-        <v>83.83880727633087</v>
+        <v>83.83880727633084</v>
       </c>
       <c r="K27" t="n">
         <v>143.2938752840013</v>
@@ -36685,7 +36685,7 @@
         <v>224.8441528412624</v>
       </c>
       <c r="N27" t="n">
-        <v>230.7951085223129</v>
+        <v>230.7951085223128</v>
       </c>
       <c r="O27" t="n">
         <v>211.1324348135704</v>
@@ -36694,7 +36694,7 @@
         <v>169.4523927021444</v>
       </c>
       <c r="Q27" t="n">
-        <v>163.4989435851596</v>
+        <v>163.4989435851599</v>
       </c>
       <c r="R27" t="n">
         <v>173.452305290305</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>52.59777339890202</v>
+        <v>52.59777339890198</v>
       </c>
       <c r="K28" t="n">
         <v>197.9838637718871</v>
@@ -36776,7 +36776,7 @@
         <v>62.2962698697811</v>
       </c>
       <c r="R28" t="n">
-        <v>12.2473775215031</v>
+        <v>12.24737752150309</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36828,16 +36828,16 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>63.52766123655913</v>
+        <v>63.52766123655911</v>
       </c>
       <c r="J29" t="n">
-        <v>140.7652310522233</v>
+        <v>580.416430499615</v>
       </c>
       <c r="K29" t="n">
         <v>1053.748664410494</v>
       </c>
       <c r="L29" t="n">
-        <v>261.7276743312711</v>
+        <v>1062.365867314479</v>
       </c>
       <c r="M29" t="n">
         <v>291.2224672174693</v>
@@ -36846,16 +36846,16 @@
         <v>295.9347512007639</v>
       </c>
       <c r="O29" t="n">
-        <v>1230.257497088031</v>
+        <v>279.4427938373206</v>
       </c>
       <c r="P29" t="n">
-        <v>1075.17460064848</v>
+        <v>238.4979594026245</v>
       </c>
       <c r="Q29" t="n">
-        <v>354.7817503396827</v>
+        <v>731.1210107358938</v>
       </c>
       <c r="R29" t="n">
-        <v>104.182317207431</v>
+        <v>275.045008877185</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>30.55265016105089</v>
+        <v>56.87959274737167</v>
       </c>
       <c r="J30" t="n">
-        <v>83.83880727633087</v>
+        <v>134.0633138822266</v>
       </c>
       <c r="K30" t="n">
-        <v>338.2016659856516</v>
+        <v>143.2938752840013</v>
       </c>
       <c r="L30" t="n">
         <v>192.6762988818884</v>
       </c>
       <c r="M30" t="n">
-        <v>224.8441528412624</v>
+        <v>224.8441528412623</v>
       </c>
       <c r="N30" t="n">
-        <v>230.7951085223129</v>
+        <v>230.7951085223128</v>
       </c>
       <c r="O30" t="n">
         <v>211.1324348135704</v>
@@ -36934,7 +36934,7 @@
         <v>113.2744369792642</v>
       </c>
       <c r="R30" t="n">
-        <v>55.09596378087099</v>
+        <v>173.452305290305</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,31 +36989,31 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>52.59777339890202</v>
+        <v>52.59777339890198</v>
       </c>
       <c r="K31" t="n">
-        <v>197.9838637718871</v>
+        <v>363.9680915880302</v>
       </c>
       <c r="L31" t="n">
-        <v>533.0403685580792</v>
+        <v>533.0403685580791</v>
       </c>
       <c r="M31" t="n">
         <v>580.7437896667661</v>
       </c>
       <c r="N31" t="n">
-        <v>560.5718037497884</v>
+        <v>560.5718037497886</v>
       </c>
       <c r="O31" t="n">
         <v>529.0632998659567</v>
       </c>
       <c r="P31" t="n">
-        <v>440.9953052361534</v>
+        <v>275.0110774200102</v>
       </c>
       <c r="Q31" t="n">
         <v>62.2962698697811</v>
       </c>
       <c r="R31" t="n">
-        <v>12.2473775215031</v>
+        <v>12.24737752150309</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>63.52766123655913</v>
+        <v>63.52766123655911</v>
       </c>
       <c r="J32" t="n">
-        <v>580.4164304996151</v>
+        <v>140.7652310522233</v>
       </c>
       <c r="K32" t="n">
-        <v>1053.748664410494</v>
+        <v>210.9705917254657</v>
       </c>
       <c r="L32" t="n">
-        <v>777.7082017843768</v>
+        <v>1230.257497088031</v>
       </c>
       <c r="M32" t="n">
         <v>291.2224672174693</v>
       </c>
       <c r="N32" t="n">
-        <v>295.9347512007639</v>
+        <v>1230.257497088031</v>
       </c>
       <c r="O32" t="n">
-        <v>279.4427938373206</v>
+        <v>1182.539357694429</v>
       </c>
       <c r="P32" t="n">
-        <v>1075.17460064848</v>
+        <v>238.4979594026245</v>
       </c>
       <c r="Q32" t="n">
         <v>179.1020350201416</v>
       </c>
       <c r="R32" t="n">
-        <v>275.045008877185</v>
+        <v>104.182317207431</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>30.55265016105089</v>
+        <v>30.55265016105088</v>
       </c>
       <c r="J33" t="n">
-        <v>83.83880727633087</v>
+        <v>278.7465979779814</v>
       </c>
       <c r="K33" t="n">
         <v>143.2938752840013</v>
@@ -37156,19 +37156,19 @@
         <v>192.6762988818884</v>
       </c>
       <c r="M33" t="n">
-        <v>224.8441528412624</v>
+        <v>224.8441528412623</v>
       </c>
       <c r="N33" t="n">
-        <v>230.7951085223129</v>
+        <v>230.7951085223128</v>
       </c>
       <c r="O33" t="n">
-        <v>211.1324348135703</v>
+        <v>211.1324348135704</v>
       </c>
       <c r="P33" t="n">
         <v>169.4523927021444</v>
       </c>
       <c r="Q33" t="n">
-        <v>308.1822276809146</v>
+        <v>113.2744369792642</v>
       </c>
       <c r="R33" t="n">
         <v>55.09596378087099</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>52.59777339890202</v>
+        <v>52.59777339890198</v>
       </c>
       <c r="K34" t="n">
         <v>197.9838637718871</v>
@@ -37250,7 +37250,7 @@
         <v>62.2962698697811</v>
       </c>
       <c r="R34" t="n">
-        <v>12.2473775215031</v>
+        <v>12.24737752150309</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37302,10 +37302,10 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>63.52766123655913</v>
+        <v>63.52766123655911</v>
       </c>
       <c r="J35" t="n">
-        <v>140.7652310522233</v>
+        <v>580.4164304996151</v>
       </c>
       <c r="K35" t="n">
         <v>210.9705917254657</v>
@@ -37314,19 +37314,19 @@
         <v>261.7276743312711</v>
       </c>
       <c r="M35" t="n">
-        <v>291.2224672174694</v>
+        <v>291.2224672174693</v>
       </c>
       <c r="N35" t="n">
-        <v>295.9347512007639</v>
+        <v>295.9347512007637</v>
       </c>
       <c r="O35" t="n">
-        <v>460.7274958593603</v>
+        <v>279.4427938373206</v>
       </c>
       <c r="P35" t="n">
         <v>238.4979594026247</v>
       </c>
       <c r="Q35" t="n">
-        <v>731.1210107358941</v>
+        <v>472.7545133105414</v>
       </c>
       <c r="R35" t="n">
         <v>275.0450088771859</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>30.55265016105088</v>
+        <v>56.8795927473717</v>
       </c>
       <c r="J36" t="n">
-        <v>278.7465979779809</v>
+        <v>83.83880727633084</v>
       </c>
       <c r="K36" t="n">
         <v>143.2938752840013</v>
@@ -37396,7 +37396,7 @@
         <v>224.8441528412624</v>
       </c>
       <c r="N36" t="n">
-        <v>230.7951085223129</v>
+        <v>230.7951085223128</v>
       </c>
       <c r="O36" t="n">
         <v>211.1324348135704</v>
@@ -37405,10 +37405,10 @@
         <v>169.4523927021444</v>
       </c>
       <c r="Q36" t="n">
-        <v>113.2744369792642</v>
+        <v>163.4989435851596</v>
       </c>
       <c r="R36" t="n">
-        <v>55.09596378087099</v>
+        <v>173.452305290305</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,31 +37463,31 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>52.59777339890201</v>
+        <v>140.0520008379827</v>
       </c>
       <c r="K37" t="n">
         <v>363.9680915880301</v>
       </c>
       <c r="L37" t="n">
-        <v>533.0403685580792</v>
+        <v>533.0403685580791</v>
       </c>
       <c r="M37" t="n">
-        <v>580.743789666766</v>
+        <v>580.7437896667661</v>
       </c>
       <c r="N37" t="n">
         <v>560.5718037497886</v>
       </c>
       <c r="O37" t="n">
-        <v>529.0632998659567</v>
+        <v>105.7331528285795</v>
       </c>
       <c r="P37" t="n">
-        <v>275.0110774200107</v>
+        <v>440.9953052361534</v>
       </c>
       <c r="Q37" t="n">
-        <v>62.2962698697811</v>
+        <v>232.1879616519345</v>
       </c>
       <c r="R37" t="n">
-        <v>12.2473775215031</v>
+        <v>12.24737752150309</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37539,10 +37539,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>63.52766123655913</v>
+        <v>63.52766123655911</v>
       </c>
       <c r="J38" t="n">
-        <v>140.7652310522233</v>
+        <v>140.7652310522232</v>
       </c>
       <c r="K38" t="n">
         <v>210.9705917254657</v>
@@ -37551,22 +37551,22 @@
         <v>261.7276743312711</v>
       </c>
       <c r="M38" t="n">
-        <v>291.2224672174694</v>
+        <v>683.9264763535509</v>
       </c>
       <c r="N38" t="n">
-        <v>295.9347512007639</v>
+        <v>295.9347512007637</v>
       </c>
       <c r="O38" t="n">
-        <v>749.9603196740891</v>
+        <v>279.4427938373206</v>
       </c>
       <c r="P38" t="n">
-        <v>501.2841113036479</v>
+        <v>749.9603196740889</v>
       </c>
       <c r="Q38" t="n">
         <v>179.102035020142</v>
       </c>
       <c r="R38" t="n">
-        <v>275.0450088771859</v>
+        <v>104.1823172074314</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>30.55265016105088</v>
+        <v>56.8795927473717</v>
       </c>
       <c r="J39" t="n">
-        <v>83.83880727633084</v>
+        <v>134.0633138822263</v>
       </c>
       <c r="K39" t="n">
         <v>143.2938752840013</v>
@@ -37630,10 +37630,10 @@
         <v>192.6762988818884</v>
       </c>
       <c r="M39" t="n">
-        <v>224.8441528412624</v>
+        <v>224.8441528412623</v>
       </c>
       <c r="N39" t="n">
-        <v>230.7951085223129</v>
+        <v>230.7951085223128</v>
       </c>
       <c r="O39" t="n">
         <v>211.1324348135704</v>
@@ -37642,10 +37642,10 @@
         <v>169.4523927021444</v>
       </c>
       <c r="Q39" t="n">
-        <v>308.1822276809144</v>
+        <v>113.2744369792642</v>
       </c>
       <c r="R39" t="n">
-        <v>55.09596378087099</v>
+        <v>173.452305290305</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,16 +37700,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>52.59777339890201</v>
+        <v>140.0520008379827</v>
       </c>
       <c r="K40" t="n">
-        <v>197.9838637718875</v>
+        <v>363.9680915880301</v>
       </c>
       <c r="L40" t="n">
-        <v>533.0403685580792</v>
+        <v>533.0403685580791</v>
       </c>
       <c r="M40" t="n">
-        <v>580.7437896667661</v>
+        <v>157.4136426293887</v>
       </c>
       <c r="N40" t="n">
         <v>560.5718037497884</v>
@@ -37721,10 +37721,10 @@
         <v>440.9953052361534</v>
       </c>
       <c r="Q40" t="n">
-        <v>62.2962698697811</v>
+        <v>232.1879616519345</v>
       </c>
       <c r="R40" t="n">
-        <v>12.2473775215031</v>
+        <v>12.24737752150309</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>63.52766123655913</v>
+        <v>63.52766123655911</v>
       </c>
       <c r="J41" t="n">
         <v>140.7652310522233</v>
@@ -37785,13 +37785,13 @@
         <v>210.9705917254657</v>
       </c>
       <c r="L41" t="n">
-        <v>261.7276743312711</v>
+        <v>261.727674331271</v>
       </c>
       <c r="M41" t="n">
-        <v>291.2224672174691</v>
+        <v>291.2224672174693</v>
       </c>
       <c r="N41" t="n">
-        <v>295.9347512007638</v>
+        <v>295.9347512007637</v>
       </c>
       <c r="O41" t="n">
         <v>279.4427938373206</v>
@@ -37803,7 +37803,7 @@
         <v>179.102035020142</v>
       </c>
       <c r="R41" t="n">
-        <v>104.1823172074312</v>
+        <v>104.1823172074317</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,22 +37855,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>30.55265016105088</v>
+        <v>56.87959274737168</v>
       </c>
       <c r="J42" t="n">
-        <v>83.83880727633085</v>
+        <v>134.0633138822263</v>
       </c>
       <c r="K42" t="n">
-        <v>338.2016659856514</v>
+        <v>143.2938752840013</v>
       </c>
       <c r="L42" t="n">
         <v>192.6762988818884</v>
       </c>
       <c r="M42" t="n">
-        <v>224.8441528412624</v>
+        <v>224.8441528412623</v>
       </c>
       <c r="N42" t="n">
-        <v>230.7951085223129</v>
+        <v>230.7951085223128</v>
       </c>
       <c r="O42" t="n">
         <v>211.1324348135704</v>
@@ -37882,7 +37882,7 @@
         <v>113.2744369792642</v>
       </c>
       <c r="R42" t="n">
-        <v>55.09596378087099</v>
+        <v>173.452305290305</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,31 +37937,31 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>140.0520008379827</v>
+        <v>52.59777339890199</v>
       </c>
       <c r="K43" t="n">
-        <v>331.9224288125658</v>
+        <v>86.43429909193358</v>
       </c>
       <c r="L43" t="n">
-        <v>110.6061445500377</v>
+        <v>196.982980345098</v>
       </c>
       <c r="M43" t="n">
-        <v>521.6121804614688</v>
+        <v>521.6121804614689</v>
       </c>
       <c r="N43" t="n">
-        <v>521.6121804614688</v>
+        <v>521.6121804614689</v>
       </c>
       <c r="O43" t="n">
-        <v>105.1549673146624</v>
+        <v>521.6121804614691</v>
       </c>
       <c r="P43" t="n">
         <v>89.97824061964661</v>
       </c>
       <c r="Q43" t="n">
-        <v>232.1879616519348</v>
+        <v>62.29626986978087</v>
       </c>
       <c r="R43" t="n">
-        <v>12.2473775215031</v>
+        <v>12.24737752150309</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>63.52766123655913</v>
+        <v>63.52766123655911</v>
       </c>
       <c r="J44" t="n">
         <v>140.7652310522233</v>
@@ -38022,13 +38022,13 @@
         <v>210.9705917254657</v>
       </c>
       <c r="L44" t="n">
-        <v>261.7276743312711</v>
+        <v>261.727674331271</v>
       </c>
       <c r="M44" t="n">
         <v>291.2224672174694</v>
       </c>
       <c r="N44" t="n">
-        <v>295.9347512007635</v>
+        <v>295.9347512007637</v>
       </c>
       <c r="O44" t="n">
         <v>279.4427938373206</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>30.55265016105088</v>
+        <v>56.87959274737168</v>
       </c>
       <c r="J45" t="n">
-        <v>278.746597977981</v>
+        <v>83.83880727633084</v>
       </c>
       <c r="K45" t="n">
         <v>143.2938752840013</v>
@@ -38107,7 +38107,7 @@
         <v>224.8441528412624</v>
       </c>
       <c r="N45" t="n">
-        <v>230.7951085223129</v>
+        <v>230.7951085223128</v>
       </c>
       <c r="O45" t="n">
         <v>211.1324348135704</v>
@@ -38116,10 +38116,10 @@
         <v>169.4523927021444</v>
       </c>
       <c r="Q45" t="n">
-        <v>113.2744369792642</v>
+        <v>163.4989435851596</v>
       </c>
       <c r="R45" t="n">
-        <v>55.09596378087099</v>
+        <v>173.452305290305</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,31 +38174,31 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>52.597773398902</v>
+        <v>52.59777339890199</v>
       </c>
       <c r="K46" t="n">
         <v>86.43429909193358</v>
       </c>
       <c r="L46" t="n">
-        <v>110.6061445500378</v>
+        <v>196.982980345098</v>
       </c>
       <c r="M46" t="n">
-        <v>521.6121804614688</v>
+        <v>521.6121804614689</v>
       </c>
       <c r="N46" t="n">
-        <v>521.6121804614688</v>
+        <v>521.6121804614689</v>
       </c>
       <c r="O46" t="n">
-        <v>438.0973244743752</v>
+        <v>521.6121804614691</v>
       </c>
       <c r="P46" t="n">
         <v>89.97824061964661</v>
       </c>
       <c r="Q46" t="n">
-        <v>232.1879616519348</v>
+        <v>62.29626986978087</v>
       </c>
       <c r="R46" t="n">
-        <v>12.2473775215031</v>
+        <v>12.24737752150309</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
